--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E827DDA-1F4A-4C0A-A795-1E7106884205}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7940894-C3FF-465A-B5DD-F314DB75DA29}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$39:$D$48,Specifications!$C$28:$D$37,Specifications!$C$7:$D$24</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$46,Specifications!$Y$47:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="97">
   <si>
     <t>Website</t>
   </si>
@@ -42,9 +47,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
@@ -186,22 +188,13 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
-    <t>exportType</t>
-  </si>
-  <si>
     <t>exportType__c</t>
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>SAP: Custom Entity</t>
@@ -261,15 +254,9 @@
     <t>Anrede</t>
   </si>
   <si>
-    <t>nicht benötigt</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
-    <t>muss ausgefüllt sein</t>
-  </si>
-  <si>
     <t>Nachname</t>
   </si>
   <si>
@@ -279,9 +266,6 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>andere Bemerkungen</t>
-  </si>
-  <si>
     <t>Telefon</t>
   </si>
   <si>
@@ -367,6 +351,12 @@
   </si>
   <si>
     <t>Export-Art</t>
+  </si>
+  <si>
+    <t>das ist eine Notiz</t>
+  </si>
+  <si>
+    <t>z.B. exportType</t>
   </si>
 </sst>
 </file>
@@ -1713,9 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
@@ -1761,6 +1749,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1788,42 +1813,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2701,32 +2691,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
-        <v>64</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="110" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2735,9 +2725,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2746,108 +2736,108 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="57"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="41"/>
-      <c r="G4" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
+      <c r="G4" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="O4" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="S4" s="120" t="s">
+      <c r="K4" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
-      <c r="W4" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="S4" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="132"/>
+      <c r="U4" s="133"/>
+      <c r="W4" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="137"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="70" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>30</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="O6" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="94" t="s">
+      <c r="S6" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="94" t="s">
+      <c r="W6" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -2863,201 +2853,209 @@
       <c r="O7" s="71"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="72"/>
-      <c r="S7" s="97"/>
+      <c r="S7" s="95"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="98"/>
-      <c r="W7" s="97"/>
+      <c r="U7" s="96"/>
+      <c r="W7" s="95"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="98"/>
-    </row>
-    <row r="8" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="96"/>
+    </row>
+    <row r="8" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
-        <v>51</v>
-      </c>
+      <c r="D8" s="61"/>
       <c r="E8" s="62"/>
       <c r="G8" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>4</v>
+      </c>
       <c r="I8" s="74" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J8" s="64"/>
       <c r="K8" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>4</v>
+      </c>
       <c r="M8" s="74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="73"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="74"/>
-      <c r="S8" s="99" t="s">
+      <c r="S8" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="100"/>
-      <c r="W8" s="99"/>
+      <c r="U8" s="98"/>
+      <c r="W8" s="97"/>
       <c r="X8" s="63"/>
-      <c r="Y8" s="100"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="98"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>51</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="49"/>
       <c r="G9" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="76" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="76" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O9" s="75"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="76"/>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="102"/>
-      <c r="W9" s="103"/>
+      <c r="U9" s="100"/>
+      <c r="W9" s="101"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="102"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="100"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="49"/>
       <c r="G10" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="76" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="76" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O10" s="75"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="76"/>
-      <c r="S10" s="103"/>
+      <c r="S10" s="101"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="102"/>
-      <c r="W10" s="103"/>
+      <c r="U10" s="100"/>
+      <c r="W10" s="101"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="102"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="100"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="49"/>
       <c r="G11" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="76" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="76" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O11" s="75"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="76"/>
-      <c r="S11" s="103"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="102"/>
-      <c r="W11" s="103"/>
+      <c r="U11" s="100"/>
+      <c r="W11" s="101"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="102"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="100"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="49"/>
       <c r="G12" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="76" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="75"/>
       <c r="L12" s="5"/>
       <c r="M12" s="76"/>
       <c r="O12" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="103"/>
+        <v>22</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="101"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="102"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="100"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="102"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" s="100"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -3066,148 +3064,170 @@
       <c r="D13" s="28"/>
       <c r="E13" s="49"/>
       <c r="G13" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="72" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="72" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O13" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="103"/>
+        <v>23</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="101"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="102"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="100"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="102"/>
-    </row>
-    <row r="14" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="100"/>
+    </row>
+    <row r="14" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
-      <c r="D14" s="61" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="61"/>
       <c r="E14" s="62"/>
       <c r="G14" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="78" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J14" s="64"/>
       <c r="K14" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="78" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O14" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="104"/>
+        <v>24</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="102"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="105"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="103"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="65"/>
-      <c r="Y14" s="105"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="103"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="49"/>
-      <c r="G15" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="80" t="s">
-        <v>3</v>
+      <c r="G15" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="103"/>
+      <c r="K15" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="101"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="102"/>
-      <c r="W15" s="103"/>
+      <c r="U15" s="100"/>
+      <c r="W15" s="101"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="102"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="100"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="49"/>
       <c r="G16" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="76" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="76" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O16" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="103"/>
+        <v>26</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="101"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="102"/>
-      <c r="W16" s="103"/>
+      <c r="U16" s="100"/>
+      <c r="W16" s="101"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="102"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="100"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3216,181 +3236,203 @@
       <c r="D17" s="28"/>
       <c r="E17" s="49"/>
       <c r="G17" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="76" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="76" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O17" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="103"/>
+        <v>27</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="101"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="102"/>
-      <c r="W17" s="103"/>
+      <c r="U17" s="100"/>
+      <c r="W17" s="101"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="102"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="100"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="49"/>
       <c r="G18" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="76" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="76" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O18" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="103"/>
+        <v>14</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="101"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="102"/>
-      <c r="W18" s="103"/>
+      <c r="U18" s="100"/>
+      <c r="W18" s="101"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="102"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="100"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="49"/>
       <c r="G19" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="76" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="76" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O19" s="75"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="76"/>
-      <c r="S19" s="103"/>
+      <c r="S19" s="101"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="102"/>
-      <c r="W19" s="103"/>
+      <c r="U19" s="100"/>
+      <c r="W19" s="101"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="102"/>
-    </row>
-    <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="100"/>
+    </row>
+    <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
-      <c r="D20" s="61" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="61"/>
       <c r="E20" s="62"/>
       <c r="G20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="78" t="s">
-        <v>3</v>
+      <c r="H20" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J20" s="64"/>
       <c r="K20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="78" t="s">
-        <v>3</v>
+      <c r="L20" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="104"/>
+      <c r="P20" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="102"/>
       <c r="T20" s="65"/>
-      <c r="U20" s="105"/>
-      <c r="W20" s="104"/>
+      <c r="U20" s="103"/>
+      <c r="W20" s="102"/>
       <c r="X20" s="65"/>
-      <c r="Y20" s="105"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="103"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="49"/>
       <c r="G21" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="76" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="76" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="O21" s="75"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="76"/>
-      <c r="S21" s="103"/>
+      <c r="S21" s="101"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="102"/>
-      <c r="W21" s="103"/>
+      <c r="U21" s="100"/>
+      <c r="W21" s="101"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="102"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" s="100"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3399,9 +3441,11 @@
       <c r="G22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="72" t="s">
-        <v>3</v>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="140" t="s">
+        <v>40</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="71"/>
@@ -3410,20 +3454,22 @@
       <c r="O22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="97"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="95"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="98"/>
-      <c r="W22" s="97"/>
+      <c r="U22" s="96"/>
+      <c r="W22" s="95"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="98"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="96"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3439,37 +3485,37 @@
       <c r="O23" s="71"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="72"/>
-      <c r="S23" s="97"/>
+      <c r="S23" s="95"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="98"/>
-      <c r="W23" s="97"/>
+      <c r="U23" s="96"/>
+      <c r="W23" s="95"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="98"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="96"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
       <c r="E24" s="50"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="83"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="108"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="108"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="81"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="81"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="106"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
+    </row>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3480,115 +3526,115 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="92"/>
+      <c r="S25" s="90"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="93"/>
+      <c r="U25" s="91"/>
       <c r="W25" s="8"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
+      <c r="G26" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
+      <c r="K26" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
+      <c r="O26" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
+      <c r="S26" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="123"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="K27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="O27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="94" t="s">
+      <c r="S27" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="W27" s="94" t="s">
+      <c r="W27" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="X27" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
-        <v>81</v>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="32"/>
@@ -3596,7 +3642,7 @@
       <c r="G28" s="75"/>
       <c r="H28" s="5"/>
       <c r="I28" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="75"/>
       <c r="L28" s="5"/>
@@ -3604,19 +3650,19 @@
       <c r="O28" s="75"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="76"/>
-      <c r="S28" s="103"/>
+      <c r="S28" s="101"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="102"/>
-      <c r="W28" s="103"/>
+      <c r="U28" s="100"/>
+      <c r="W28" s="101"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="102"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="113" t="s">
-        <v>82</v>
+      <c r="Y28" s="100"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="111" t="s">
+        <v>75</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="33"/>
@@ -3624,7 +3670,7 @@
       <c r="G29" s="75"/>
       <c r="H29" s="5"/>
       <c r="I29" s="76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="75"/>
       <c r="L29" s="5"/>
@@ -3632,19 +3678,19 @@
       <c r="O29" s="75"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="76"/>
-      <c r="S29" s="103"/>
+      <c r="S29" s="101"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="102"/>
-      <c r="W29" s="103"/>
+      <c r="U29" s="100"/>
+      <c r="W29" s="101"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="102"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="113" t="s">
-        <v>83</v>
+      <c r="Y29" s="100"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="33"/>
@@ -3658,19 +3704,19 @@
       <c r="O30" s="75"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="76"/>
-      <c r="S30" s="103"/>
+      <c r="S30" s="101"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="102"/>
-      <c r="W30" s="103"/>
+      <c r="U30" s="100"/>
+      <c r="W30" s="101"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="102"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="113" t="s">
-        <v>84</v>
+      <c r="Y30" s="100"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="33"/>
@@ -3684,16 +3730,16 @@
       <c r="O31" s="75"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="76"/>
-      <c r="S31" s="103"/>
+      <c r="S31" s="101"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="102"/>
-      <c r="W31" s="103"/>
+      <c r="U31" s="100"/>
+      <c r="W31" s="101"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="102"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
-        <v>85</v>
+      <c r="Y31" s="100"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="38"/>
@@ -3708,16 +3754,16 @@
       <c r="O32" s="75"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="76"/>
-      <c r="S32" s="103"/>
+      <c r="S32" s="101"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="102"/>
-      <c r="W32" s="103"/>
+      <c r="U32" s="100"/>
+      <c r="W32" s="101"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="102"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="113" t="s">
-        <v>86</v>
+      <c r="Y32" s="100"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="38"/>
@@ -3732,16 +3778,16 @@
       <c r="O33" s="75"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="76"/>
-      <c r="S33" s="103"/>
+      <c r="S33" s="101"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="102"/>
-      <c r="W33" s="103"/>
+      <c r="U33" s="100"/>
+      <c r="W33" s="101"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="102"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="113" t="s">
-        <v>87</v>
+      <c r="Y33" s="100"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="111" t="s">
+        <v>80</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="38"/>
@@ -3756,16 +3802,16 @@
       <c r="O34" s="75"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="76"/>
-      <c r="S34" s="103"/>
+      <c r="S34" s="101"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="102"/>
-      <c r="W34" s="103"/>
+      <c r="U34" s="100"/>
+      <c r="W34" s="101"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="102"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="113" t="s">
-        <v>88</v>
+      <c r="Y34" s="100"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="111" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="38"/>
@@ -3780,16 +3826,16 @@
       <c r="O35" s="75"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="76"/>
-      <c r="S35" s="103"/>
+      <c r="S35" s="101"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="102"/>
-      <c r="W35" s="103"/>
+      <c r="U35" s="100"/>
+      <c r="W35" s="101"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="102"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="113" t="s">
-        <v>89</v>
+      <c r="Y35" s="100"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="111" t="s">
+        <v>82</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="38"/>
@@ -3804,98 +3850,98 @@
       <c r="O36" s="75"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="76"/>
-      <c r="S36" s="103"/>
+      <c r="S36" s="101"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="102"/>
-      <c r="W36" s="103"/>
+      <c r="U36" s="100"/>
+      <c r="W36" s="101"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="102"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113" t="s">
-        <v>90</v>
+      <c r="Y36" s="100"/>
+    </row>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="111" t="s">
+        <v>83</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="39"/>
       <c r="D37" s="34"/>
       <c r="E37" s="47"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
       <c r="K37" s="71"/>
       <c r="L37" s="6"/>
       <c r="M37" s="72"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="83"/>
-      <c r="S37" s="97"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="81"/>
+      <c r="S37" s="95"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="98"/>
-      <c r="W37" s="97"/>
+      <c r="U37" s="96"/>
+      <c r="W37" s="95"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="98"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y37" s="96"/>
+    </row>
+    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G38" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="84" t="s">
+      <c r="K38" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="86" t="s">
-        <v>30</v>
-      </c>
       <c r="O38" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P38" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" s="110" t="s">
+      <c r="S38" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="W38" s="110" t="s">
+      <c r="W38" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y38" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="X38" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="114" t="s">
-        <v>91</v>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="112" t="s">
+        <v>84</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="37"/>
@@ -3904,22 +3950,22 @@
       <c r="G39" s="75"/>
       <c r="H39" s="5"/>
       <c r="I39" s="76"/>
-      <c r="K39" s="87"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="88"/>
+      <c r="M39" s="86"/>
       <c r="O39" s="75"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="76"/>
-      <c r="S39" s="103"/>
+      <c r="S39" s="101"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="102"/>
-      <c r="W39" s="103"/>
+      <c r="U39" s="100"/>
+      <c r="W39" s="101"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="102"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="113" t="s">
-        <v>92</v>
+      <c r="Y39" s="100"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="111" t="s">
+        <v>85</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="38"/>
@@ -3928,22 +3974,22 @@
       <c r="G40" s="75"/>
       <c r="H40" s="5"/>
       <c r="I40" s="76"/>
-      <c r="K40" s="87"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="88"/>
+      <c r="M40" s="86"/>
       <c r="O40" s="75"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="76"/>
-      <c r="S40" s="103"/>
+      <c r="S40" s="101"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="102"/>
-      <c r="W40" s="103"/>
+      <c r="U40" s="100"/>
+      <c r="W40" s="101"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="102"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="113" t="s">
-        <v>83</v>
+      <c r="Y40" s="100"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="38"/>
@@ -3952,22 +3998,22 @@
       <c r="G41" s="75"/>
       <c r="H41" s="5"/>
       <c r="I41" s="76"/>
-      <c r="K41" s="87"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="88"/>
+      <c r="M41" s="86"/>
       <c r="O41" s="75"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="76"/>
-      <c r="S41" s="103"/>
+      <c r="S41" s="101"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="102"/>
-      <c r="W41" s="103"/>
+      <c r="U41" s="100"/>
+      <c r="W41" s="101"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="102"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
-        <v>84</v>
+      <c r="Y41" s="100"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="38"/>
@@ -3976,22 +4022,22 @@
       <c r="G42" s="75"/>
       <c r="H42" s="5"/>
       <c r="I42" s="76"/>
-      <c r="K42" s="87"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="88"/>
+      <c r="M42" s="86"/>
       <c r="O42" s="75"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="76"/>
-      <c r="S42" s="103"/>
+      <c r="S42" s="101"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="102"/>
-      <c r="W42" s="103"/>
+      <c r="U42" s="100"/>
+      <c r="W42" s="101"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="102"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="113" t="s">
-        <v>85</v>
+      <c r="Y42" s="100"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="38"/>
@@ -4000,22 +4046,22 @@
       <c r="G43" s="75"/>
       <c r="H43" s="5"/>
       <c r="I43" s="76"/>
-      <c r="K43" s="87"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="88"/>
+      <c r="M43" s="86"/>
       <c r="O43" s="75"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="76"/>
-      <c r="S43" s="103"/>
+      <c r="S43" s="101"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="102"/>
-      <c r="W43" s="103"/>
+      <c r="U43" s="100"/>
+      <c r="W43" s="101"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="102"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="113" t="s">
-        <v>86</v>
+      <c r="Y43" s="100"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="38"/>
@@ -4024,22 +4070,22 @@
       <c r="G44" s="75"/>
       <c r="H44" s="5"/>
       <c r="I44" s="76"/>
-      <c r="K44" s="87"/>
+      <c r="K44" s="85"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="88"/>
+      <c r="M44" s="86"/>
       <c r="O44" s="75"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="76"/>
-      <c r="S44" s="103"/>
+      <c r="S44" s="101"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="102"/>
-      <c r="W44" s="103"/>
+      <c r="U44" s="100"/>
+      <c r="W44" s="101"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="102"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="113" t="s">
-        <v>87</v>
+      <c r="Y44" s="100"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="111" t="s">
+        <v>80</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="38"/>
@@ -4048,22 +4094,22 @@
       <c r="G45" s="75"/>
       <c r="H45" s="5"/>
       <c r="I45" s="76"/>
-      <c r="K45" s="87"/>
+      <c r="K45" s="85"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="88"/>
+      <c r="M45" s="86"/>
       <c r="O45" s="75"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="76"/>
-      <c r="S45" s="103"/>
+      <c r="S45" s="101"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="102"/>
-      <c r="W45" s="103"/>
+      <c r="U45" s="100"/>
+      <c r="W45" s="101"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="102"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="113" t="s">
-        <v>88</v>
+      <c r="Y45" s="100"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="111" t="s">
+        <v>81</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="38"/>
@@ -4072,22 +4118,22 @@
       <c r="G46" s="75"/>
       <c r="H46" s="5"/>
       <c r="I46" s="76"/>
-      <c r="K46" s="87"/>
+      <c r="K46" s="85"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="88"/>
+      <c r="M46" s="86"/>
       <c r="O46" s="75"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="76"/>
-      <c r="S46" s="103"/>
+      <c r="S46" s="101"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="102"/>
-      <c r="W46" s="103"/>
+      <c r="U46" s="100"/>
+      <c r="W46" s="101"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="102"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="113" t="s">
-        <v>89</v>
+      <c r="Y46" s="100"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="111" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="38"/>
@@ -4096,117 +4142,117 @@
       <c r="G47" s="75"/>
       <c r="H47" s="5"/>
       <c r="I47" s="76"/>
-      <c r="K47" s="87"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="88"/>
+      <c r="M47" s="86"/>
       <c r="O47" s="75"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="76"/>
-      <c r="S47" s="103"/>
+      <c r="S47" s="101"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="102"/>
-      <c r="W47" s="103"/>
+      <c r="U47" s="100"/>
+      <c r="W47" s="101"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="102"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="113" t="s">
-        <v>90</v>
+      <c r="Y47" s="100"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="118" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="39"/>
       <c r="D48" s="34"/>
       <c r="E48" s="47"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="83"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="83"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="107"/>
-      <c r="U48" s="108"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="107"/>
-      <c r="Y48" s="108"/>
-    </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="81"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="81"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="106"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="106"/>
+    </row>
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G50" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="K50" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="L50" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="O50" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P50" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" s="110" t="s">
+      <c r="S50" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="T50" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="W50" s="110" t="s">
+      <c r="W50" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y50" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="X50" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="131"/>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="42"/>
       <c r="G51" s="75"/>
       <c r="H51" s="5"/>
@@ -4217,22 +4263,22 @@
       <c r="O51" s="75"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="76"/>
-      <c r="S51" s="103"/>
+      <c r="S51" s="101"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="102"/>
-      <c r="W51" s="103"/>
+      <c r="U51" s="100"/>
+      <c r="W51" s="101"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="102"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="134"/>
+      <c r="Y51" s="100"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="43"/>
       <c r="G52" s="75"/>
       <c r="H52" s="5"/>
@@ -4243,22 +4289,22 @@
       <c r="O52" s="75"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="76"/>
-      <c r="S52" s="103"/>
+      <c r="S52" s="101"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="102"/>
-      <c r="W52" s="103"/>
+      <c r="U52" s="100"/>
+      <c r="W52" s="101"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="102"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="132" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="134"/>
+      <c r="Y52" s="100"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="43"/>
       <c r="G53" s="75"/>
       <c r="H53" s="5"/>
@@ -4269,22 +4315,22 @@
       <c r="O53" s="75"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="76"/>
-      <c r="S53" s="103"/>
+      <c r="S53" s="101"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="102"/>
-      <c r="W53" s="103"/>
+      <c r="U53" s="100"/>
+      <c r="W53" s="101"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="102"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="134"/>
+      <c r="Y53" s="100"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="43"/>
       <c r="G54" s="75"/>
       <c r="H54" s="5"/>
@@ -4295,33 +4341,33 @@
       <c r="O54" s="75"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="76"/>
-      <c r="S54" s="103"/>
+      <c r="S54" s="101"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="102"/>
-      <c r="W54" s="103"/>
+      <c r="U54" s="100"/>
+      <c r="W54" s="101"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="102"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="133"/>
-      <c r="D55" s="134"/>
+      <c r="Y54" s="100"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
       <c r="E55" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G55" s="75" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I55" s="76" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K55" s="75"/>
       <c r="L55" s="5"/>
@@ -4329,18 +4375,18 @@
       <c r="O55" s="75"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="76"/>
-      <c r="S55" s="103"/>
+      <c r="S55" s="101"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="102"/>
-      <c r="W55" s="103"/>
+      <c r="U55" s="100"/>
+      <c r="W55" s="101"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="102"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="119"/>
+      <c r="Y55" s="100"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="43"/>
       <c r="G56" s="75"/>
       <c r="H56" s="5"/>
@@ -4351,18 +4397,18 @@
       <c r="O56" s="75"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="76"/>
-      <c r="S56" s="103"/>
+      <c r="S56" s="101"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="102"/>
-      <c r="W56" s="103"/>
+      <c r="U56" s="100"/>
+      <c r="W56" s="101"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="102"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y56" s="100"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="43"/>
       <c r="G57" s="75"/>
       <c r="H57" s="5"/>
@@ -4373,18 +4419,18 @@
       <c r="O57" s="75"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="76"/>
-      <c r="S57" s="103"/>
+      <c r="S57" s="101"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="102"/>
-      <c r="W57" s="103"/>
+      <c r="U57" s="100"/>
+      <c r="W57" s="101"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="102"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y57" s="100"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="43"/>
       <c r="G58" s="75"/>
       <c r="H58" s="5"/>
@@ -4395,18 +4441,18 @@
       <c r="O58" s="75"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="76"/>
-      <c r="S58" s="103"/>
+      <c r="S58" s="101"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="102"/>
-      <c r="W58" s="103"/>
+      <c r="U58" s="100"/>
+      <c r="W58" s="101"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="102"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y58" s="100"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="43"/>
       <c r="G59" s="75"/>
       <c r="H59" s="5"/>
@@ -4417,18 +4463,18 @@
       <c r="O59" s="75"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="76"/>
-      <c r="S59" s="103"/>
+      <c r="S59" s="101"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="102"/>
-      <c r="W59" s="103"/>
+      <c r="U59" s="100"/>
+      <c r="W59" s="101"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="102"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="100"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="43"/>
       <c r="G60" s="75"/>
       <c r="H60" s="5"/>
@@ -4439,54 +4485,45 @@
       <c r="O60" s="75"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="76"/>
-      <c r="S60" s="103"/>
+      <c r="S60" s="101"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="102"/>
-      <c r="W60" s="103"/>
+      <c r="U60" s="100"/>
+      <c r="W60" s="101"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="102"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y60" s="100"/>
+    </row>
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="44"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="83"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="83"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="83"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="107"/>
-      <c r="U61" s="108"/>
-      <c r="W61" s="106"/>
-      <c r="X61" s="107"/>
-      <c r="Y61" s="108"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="81"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="81"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="106"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="105"/>
+      <c r="Y61" s="106"/>
+    </row>
+    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GmW0mtyQrOQU4ChwhWdEVh2lSShoTjYbXjjLm/x9pO3TXd1AgtsVhGfUeTSTSYpsXpfDikaDI2lpjqE4JS3Vcg==" saltValue="qQ3E9Bk1FWR7G14m5oeu7A==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A27:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>
+    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4497,9 +4534,19 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:AG27 A38:AG38 B28:AG37 B39:AG48">
+  <conditionalFormatting sqref="A38:AG38 B28:AG37 B39:AG48 A8:AG27">
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -4563,6 +4610,14 @@
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y46 Y47:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{48717D9B-040D-47A7-B696-AE48B2CFBD90}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D48 C28:D37 C7:D24" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4570,18 +4625,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4794,14 +4849,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
@@ -4814,6 +4861,14 @@
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7940894-C3FF-465A-B5DD-F314DB75DA29}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E27BDE5-4808-4B5F-A3D3-7D1BE25F4D61}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -182,12 +182,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>z.B. exportType</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1750,6 +1750,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1813,7 +1818,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2692,31 +2696,31 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2725,9 +2729,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2736,51 +2740,51 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="57"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="40" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="O4" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="O4" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="S4" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
-      <c r="W4" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="137"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="S4" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="137"/>
+      <c r="U4" s="138"/>
+      <c r="W4" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="142"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>32</v>
       </c>
@@ -2788,7 +2792,7 @@
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>28</v>
@@ -2837,7 +2841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -2860,12 +2864,12 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="96"/>
     </row>
-    <row r="8" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
@@ -2903,9 +2907,9 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="98"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="27"/>
@@ -2927,7 +2931,7 @@
       <c r="L9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="140" t="s">
+      <c r="M9" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O9" s="75"/>
@@ -2944,9 +2948,9 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="100"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="27"/>
@@ -2958,7 +2962,7 @@
       <c r="H10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="140" t="s">
+      <c r="I10" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="1"/>
@@ -2968,7 +2972,7 @@
       <c r="L10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="140" t="s">
+      <c r="M10" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O10" s="75"/>
@@ -2981,9 +2985,9 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="100"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
@@ -2995,7 +2999,7 @@
       <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="140" t="s">
+      <c r="I11" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="1"/>
@@ -3005,7 +3009,7 @@
       <c r="L11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="140" t="s">
+      <c r="M11" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O11" s="75"/>
@@ -3018,9 +3022,9 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="100"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="27"/>
@@ -3032,7 +3036,7 @@
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="1"/>
@@ -3045,7 +3049,7 @@
       <c r="P12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="140" t="s">
+      <c r="Q12" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S12" s="101"/>
@@ -3055,7 +3059,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="100"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -3069,26 +3073,26 @@
       <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="71" t="s">
-        <v>17</v>
+      <c r="K13" s="120" t="s">
+        <v>9</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="140" t="s">
+      <c r="M13" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="71" t="s">
-        <v>23</v>
+      <c r="O13" s="120" t="s">
+        <v>9</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="140" t="s">
+      <c r="Q13" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="101"/>
@@ -3098,7 +3102,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="100"/>
     </row>
-    <row r="14" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>1</v>
       </c>
@@ -3112,26 +3116,26 @@
       <c r="H14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="140" t="s">
+      <c r="I14" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="77" t="s">
-        <v>18</v>
+      <c r="K14" s="121" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="140" t="s">
+      <c r="M14" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="77" t="s">
-        <v>24</v>
+      <c r="O14" s="121" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="140" t="s">
+      <c r="Q14" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S14" s="102"/>
@@ -3141,9 +3145,9 @@
       <c r="X14" s="65"/>
       <c r="Y14" s="103"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
@@ -3155,26 +3159,26 @@
       <c r="H15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="78" t="s">
-        <v>19</v>
+      <c r="K15" s="122" t="s">
+        <v>11</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="140" t="s">
+      <c r="M15" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="78" t="s">
-        <v>25</v>
+      <c r="O15" s="122" t="s">
+        <v>11</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="140" t="s">
+      <c r="Q15" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S15" s="101"/>
@@ -3184,9 +3188,9 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="100"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
@@ -3198,26 +3202,26 @@
       <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="140" t="s">
+      <c r="I16" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="75" t="s">
-        <v>20</v>
+      <c r="K16" s="123" t="s">
+        <v>12</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="140" t="s">
+      <c r="M16" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="75" t="s">
-        <v>26</v>
+      <c r="O16" s="123" t="s">
+        <v>12</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="140" t="s">
+      <c r="Q16" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S16" s="101"/>
@@ -3227,7 +3231,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="100"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3241,26 +3245,26 @@
       <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="75" t="s">
-        <v>21</v>
+      <c r="K17" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="140" t="s">
+      <c r="M17" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="75" t="s">
-        <v>27</v>
+      <c r="O17" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="140" t="s">
+      <c r="Q17" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S17" s="101"/>
@@ -3270,9 +3274,9 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="100"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
@@ -3284,17 +3288,17 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="140" t="s">
+      <c r="I18" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="123" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="140" t="s">
+      <c r="M18" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O18" s="75" t="s">
@@ -3303,7 +3307,7 @@
       <c r="P18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="140" t="s">
+      <c r="Q18" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S18" s="101"/>
@@ -3313,9 +3317,9 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="100"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
@@ -3327,17 +3331,17 @@
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="140" t="s">
+      <c r="I19" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="123" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="140" t="s">
+      <c r="M19" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O19" s="75"/>
@@ -3350,9 +3354,9 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="100"/>
     </row>
-    <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
@@ -3364,17 +3368,17 @@
       <c r="H20" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="140" t="s">
+      <c r="I20" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="64"/>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="121" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="140" t="s">
+      <c r="M20" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O20" s="77" t="s">
@@ -3383,7 +3387,7 @@
       <c r="P20" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="140" t="s">
+      <c r="Q20" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S20" s="102"/>
@@ -3393,9 +3397,9 @@
       <c r="X20" s="65"/>
       <c r="Y20" s="103"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="27"/>
@@ -3407,17 +3411,17 @@
       <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="140" t="s">
+      <c r="I21" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="123" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="140" t="s">
+      <c r="M21" s="119" t="s">
         <v>40</v>
       </c>
       <c r="O21" s="75"/>
@@ -3430,9 +3434,9 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="100"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3444,7 +3448,7 @@
       <c r="H22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="140" t="s">
+      <c r="I22" s="119" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="1"/>
@@ -3457,7 +3461,7 @@
       <c r="P22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="140" t="s">
+      <c r="Q22" s="119" t="s">
         <v>40</v>
       </c>
       <c r="S22" s="95"/>
@@ -3467,9 +3471,9 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="96"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3492,7 +3496,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="96"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="29"/>
@@ -3515,7 +3519,7 @@
       <c r="X24" s="105"/>
       <c r="Y24" s="106"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3533,7 +3537,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>33</v>
       </c>
@@ -3541,37 +3545,37 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="144" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="139" t="s">
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
         <v>34</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="68" t="s">
         <v>28</v>
@@ -3629,9 +3633,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>38</v>
@@ -3657,9 +3661,9 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="100"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="111" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>39</v>
@@ -3685,9 +3689,9 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="100"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>40</v>
@@ -3711,9 +3715,9 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="100"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>41</v>
@@ -3737,9 +3741,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="100"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="38"/>
@@ -3761,9 +3765,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="100"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="38"/>
@@ -3785,9 +3789,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="100"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="38"/>
@@ -3809,9 +3813,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="100"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="38"/>
@@ -3833,9 +3837,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="100"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="38"/>
@@ -3857,9 +3861,9 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="100"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="39"/>
@@ -3881,7 +3885,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="96"/>
     </row>
-    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>35</v>
       </c>
@@ -3891,7 +3895,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>28</v>
@@ -3939,9 +3943,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="112" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="37"/>
@@ -3963,9 +3967,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="100"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="111" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="38"/>
@@ -3987,9 +3991,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="100"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="38"/>
@@ -4011,9 +4015,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="100"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="38"/>
@@ -4035,9 +4039,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="100"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="38"/>
@@ -4059,9 +4063,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="100"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="38"/>
@@ -4083,9 +4087,9 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="100"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="38"/>
@@ -4107,9 +4111,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="100"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="38"/>
@@ -4131,9 +4135,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="100"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="38"/>
@@ -4155,9 +4159,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="100"/>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="39"/>
@@ -4179,14 +4183,14 @@
       <c r="X48" s="105"/>
       <c r="Y48" s="106"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>36</v>
       </c>
@@ -4196,7 +4200,7 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G50" s="68" t="s">
         <v>28</v>
@@ -4244,15 +4248,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127"/>
+        <v>84</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
       <c r="E51" s="42"/>
       <c r="G51" s="75"/>
       <c r="H51" s="5"/>
@@ -4270,15 +4274,15 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="100"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="129"/>
-      <c r="D52" s="130"/>
+        <v>86</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="134"/>
+      <c r="D52" s="135"/>
       <c r="E52" s="43"/>
       <c r="G52" s="75"/>
       <c r="H52" s="5"/>
@@ -4296,15 +4300,15 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="100"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="129"/>
-      <c r="D53" s="130"/>
+        <v>88</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="43"/>
       <c r="G53" s="75"/>
       <c r="H53" s="5"/>
@@ -4322,15 +4326,15 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="100"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="129"/>
-      <c r="D54" s="130"/>
+        <v>90</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="134"/>
+      <c r="D54" s="135"/>
       <c r="E54" s="43"/>
       <c r="G54" s="75"/>
       <c r="H54" s="5"/>
@@ -4348,23 +4352,23 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="100"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="75" t="s">
-        <v>96</v>
-      </c>
       <c r="H55" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I55" s="76" t="s">
         <v>40</v>
@@ -4382,7 +4386,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="100"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="114"/>
       <c r="B56" s="115"/>
       <c r="C56" s="116"/>
@@ -4404,11 +4408,11 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="100"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="126"/>
       <c r="E57" s="43"/>
       <c r="G57" s="75"/>
       <c r="H57" s="5"/>
@@ -4426,11 +4430,11 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="100"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
       <c r="E58" s="43"/>
       <c r="G58" s="75"/>
       <c r="H58" s="5"/>
@@ -4448,11 +4452,11 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="100"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="126"/>
       <c r="E59" s="43"/>
       <c r="G59" s="75"/>
       <c r="H59" s="5"/>
@@ -4470,11 +4474,11 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="100"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="126"/>
       <c r="E60" s="43"/>
       <c r="G60" s="75"/>
       <c r="H60" s="5"/>
@@ -4492,11 +4496,11 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="100"/>
     </row>
-    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="124"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="129"/>
       <c r="E61" s="44"/>
       <c r="G61" s="79"/>
       <c r="H61" s="80"/>
@@ -4514,9 +4518,9 @@
       <c r="X61" s="105"/>
       <c r="Y61" s="106"/>
     </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GmW0mtyQrOQU4ChwhWdEVh2lSShoTjYbXjjLm/x9pO3TXd1AgtsVhGfUeTSTSYpsXpfDikaDI2lpjqE4JS3Vcg==" saltValue="qQ3E9Bk1FWR7G14m5oeu7A==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A27:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAP_C4C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFD3CB-AB2E-4AE0-9BCD-1D5D4E553D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24E481-2892-4859-BE4E-2BB32043A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -35,6 +35,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{7F1CC93A-73AD-48E4-A6F8-5F2E8ED8DDFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4D88E019-C27D-4D5F-A4BE-37204399E030}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
@@ -117,12 +155,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>SAP: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAP: Custom Entity (optional)</t>
   </si>
   <si>
     <t>CRM System: SAP C/4HANA</t>
@@ -440,20 +472,26 @@
     <t xml:space="preserve">Group 2 </t>
   </si>
   <si>
-    <t>SAP C/4HANA: Custom Entity</t>
-  </si>
-  <si>
     <t>ContactEMail</t>
   </si>
   <si>
     <t>AccountName</t>
+  </si>
+  <si>
+    <t>SAP: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SAP C/4HANA: Additional Entity</t>
+  </si>
+  <si>
+    <t>SAP: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +587,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -651,37 +696,6 @@
         <color theme="0"/>
       </left>
       <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2107,6 +2121,43 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2125,63 +2176,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,170 +2241,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2362,16 +2297,132 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2380,44 +2431,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3145,9 +3196,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFB4C6E7"/>
       <color rgb="FF9DA600"/>
       <color rgb="FF001E51"/>
-      <color rgb="FFB4C6E7"/>
       <color rgb="FFFE6C36"/>
       <color rgb="FFFEFFE1"/>
     </mruColors>
@@ -3755,11 +3806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3794,7 +3845,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3807,48 +3858,48 @@
       <c r="G3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:25" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
+      <c r="G4" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="161" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="O4" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="S4" s="155" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="156"/>
-      <c r="U4" s="157"/>
-      <c r="W4" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="K4" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="O4" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="S4" s="177" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="178"/>
+      <c r="U4" s="179"/>
+      <c r="W4" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="182"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="155" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="47"/>
@@ -3929,16 +3980,16 @@
     </row>
     <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
       <c r="G8" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -3967,27 +4018,27 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="35"/>
       <c r="G9" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M9" s="85" t="s">
         <v>18</v>
@@ -4008,17 +4059,17 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="35"/>
       <c r="G10" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>17</v>
@@ -4039,24 +4090,24 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="35"/>
       <c r="G11" s="54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>3</v>
@@ -4076,24 +4127,24 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="35"/>
       <c r="G12" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>4</v>
@@ -4113,7 +4164,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23"/>
@@ -4124,10 +4175,10 @@
       <c r="I13" s="85"/>
       <c r="J13" s="1"/>
       <c r="K13" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M13" s="55" t="s">
         <v>17</v>
@@ -4144,14 +4195,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="35"/>
       <c r="G14" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>5</v>
@@ -4167,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="85" t="s">
         <v>17</v>
@@ -4181,33 +4232,33 @@
     </row>
     <row r="15" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
       <c r="G15" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I15" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M15" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>6</v>
@@ -4224,7 +4275,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23"/>
@@ -4234,7 +4285,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" s="85" t="s">
         <v>17</v>
@@ -4244,13 +4295,13 @@
         <v>7</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M16" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>7</v>
@@ -4267,36 +4318,36 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="35"/>
       <c r="G17" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="85" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="85" t="s">
         <v>17</v>
@@ -4310,36 +4361,36 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="35"/>
       <c r="G18" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I18" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M18" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="85" t="s">
         <v>17</v>
@@ -4353,36 +4404,36 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="35"/>
       <c r="G19" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="85" t="s">
         <v>17</v>
@@ -4396,24 +4447,24 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="35"/>
       <c r="G20" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>8</v>
@@ -4422,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>8</v>
@@ -4439,27 +4490,27 @@
     </row>
     <row r="21" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
       <c r="G21" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M21" s="85" t="s">
         <v>17</v>
@@ -4517,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I23" s="85" t="s">
         <v>17</v>
@@ -4551,10 +4602,10 @@
       <c r="D24" s="24"/>
       <c r="E24" s="35"/>
       <c r="G24" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="53" t="s">
         <v>17</v>
@@ -4575,17 +4626,17 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="90"/>
       <c r="D25" s="91"/>
       <c r="E25" s="92"/>
       <c r="G25" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I25" s="53" t="s">
         <v>18</v>
@@ -4606,17 +4657,17 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="90"/>
       <c r="D26" s="91"/>
       <c r="E26" s="92"/>
       <c r="G26" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I26" s="53" t="s">
         <v>18</v>
@@ -4637,17 +4688,17 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="90"/>
       <c r="D27" s="91"/>
       <c r="E27" s="92"/>
       <c r="G27" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I27" s="53" t="s">
         <v>18</v>
@@ -4668,17 +4719,17 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="90"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
       <c r="G28" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="53" t="s">
         <v>18</v>
@@ -4699,17 +4750,17 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="90"/>
       <c r="D29" s="91"/>
       <c r="E29" s="92"/>
       <c r="G29" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="53" t="s">
         <v>17</v>
@@ -4730,7 +4781,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="90"/>
@@ -4744,10 +4795,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="53"/>
       <c r="O30" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="53" t="s">
         <v>18</v>
@@ -4802,48 +4853,48 @@
     </row>
     <row r="33" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="150" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
       <c r="D33" s="96"/>
       <c r="E33" s="96"/>
-      <c r="G33" s="174" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
+      <c r="G33" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="157"/>
+      <c r="I33" s="158"/>
       <c r="J33" s="97"/>
-      <c r="K33" s="174" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="175"/>
-      <c r="M33" s="176"/>
+      <c r="K33" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="157"/>
+      <c r="M33" s="158"/>
       <c r="N33" s="97"/>
-      <c r="O33" s="177" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="179"/>
+      <c r="O33" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="161"/>
       <c r="R33" s="98"/>
-      <c r="S33" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="T33" s="181"/>
-      <c r="U33" s="182"/>
+      <c r="S33" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="T33" s="163"/>
+      <c r="U33" s="164"/>
       <c r="V33" s="98"/>
-      <c r="W33" s="181" t="s">
-        <v>124</v>
-      </c>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="182"/>
+      <c r="W33" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="X33" s="163"/>
+      <c r="Y33" s="164"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="101"/>
       <c r="D34" s="101"/>
@@ -4898,15 +4949,15 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="107"/>
       <c r="D35" s="106"/>
       <c r="E35" s="108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G35" s="52"/>
       <c r="H35" s="6"/>
@@ -4926,7 +4977,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
@@ -4950,7 +5001,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="113"/>
       <c r="C37" s="114"/>
@@ -4974,7 +5025,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="113"/>
       <c r="C38" s="114"/>
@@ -4998,7 +5049,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="113"/>
       <c r="C39" s="114"/>
@@ -5022,7 +5073,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" s="113"/>
       <c r="C40" s="114"/>
@@ -5046,7 +5097,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="113"/>
       <c r="C41" s="114"/>
@@ -5070,7 +5121,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B42" s="113"/>
       <c r="C42" s="114"/>
@@ -5094,7 +5145,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="113"/>
       <c r="C43" s="114"/>
@@ -5118,7 +5169,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B44" s="113"/>
       <c r="C44" s="114"/>
@@ -5142,7 +5193,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="116"/>
       <c r="C45" s="117"/>
@@ -5188,10 +5239,10 @@
     </row>
     <row r="47" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="152"/>
       <c r="D47" s="152"/>
@@ -5246,7 +5297,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107"/>
@@ -5270,7 +5321,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="113"/>
       <c r="C49" s="114"/>
@@ -5294,7 +5345,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" s="113"/>
       <c r="C50" s="114"/>
@@ -5318,7 +5369,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" s="113"/>
       <c r="C51" s="114"/>
@@ -5342,7 +5393,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" s="113"/>
       <c r="C52" s="114"/>
@@ -5366,7 +5417,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="113"/>
       <c r="C53" s="114"/>
@@ -5390,7 +5441,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="113"/>
       <c r="C54" s="114"/>
@@ -5414,7 +5465,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="113"/>
       <c r="C55" s="114"/>
@@ -5438,7 +5489,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="113"/>
       <c r="C56" s="114"/>
@@ -5462,7 +5513,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="116"/>
       <c r="C57" s="117"/>
@@ -5578,13 +5629,13 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="163"/>
-      <c r="D61" s="164"/>
+        <v>44</v>
+      </c>
+      <c r="B61" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="172"/>
+      <c r="D61" s="173"/>
       <c r="E61" s="31"/>
       <c r="G61" s="54"/>
       <c r="H61" s="5"/>
@@ -5604,13 +5655,13 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="165" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="166"/>
-      <c r="D62" s="167"/>
+        <v>46</v>
+      </c>
+      <c r="B62" s="174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="175"/>
+      <c r="D62" s="176"/>
       <c r="E62" s="32"/>
       <c r="G62" s="54"/>
       <c r="H62" s="5"/>
@@ -5630,13 +5681,13 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="165" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167"/>
+        <v>48</v>
+      </c>
+      <c r="B63" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="175"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="32"/>
       <c r="G63" s="54"/>
       <c r="H63" s="5"/>
@@ -5656,13 +5707,13 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="165" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
+        <v>50</v>
+      </c>
+      <c r="B64" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="175"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="32"/>
       <c r="G64" s="54"/>
       <c r="H64" s="5"/>
@@ -5682,18 +5733,18 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="166"/>
-      <c r="D65" s="167"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="176"/>
       <c r="E65" s="32" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>25</v>
@@ -5738,9 +5789,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5760,9 +5811,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="167"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5782,9 +5833,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="167"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5804,9 +5855,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="168"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5826,9 +5877,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="172"/>
-      <c r="D71" s="173"/>
+      <c r="B71" s="168"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="170"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -5862,26 +5913,26 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V8:AG10 B8:R10 A11:AG32">
@@ -6116,24 +6167,37 @@
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61:I71 Y61:Y71 U61:U71 Q61:Q71 M61:M71 I7:I31 Q7:Q31 U7:U31 M7:M31 Y7:Y31 Q48:Q58 I48:I58 M48:M58" xr:uid="{48717D9B-040D-47A7-B696-AE48B2CFBD90}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35:Y46 Q35:Q46 M35:M46 I35:I46 U35:U46 U48:U58 Y48:Y58" xr:uid="{AE53E91A-327D-4299-9B86-BD1A9B68A3CF}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U49:U57 U48 U58 Y48:Y58 I61:I71 M61:M71 Q61:Q70 Q71 U61:U71 Y61:Y71" xr:uid="{4A0F3C2B-1184-4B31-81A6-C920B66CDE27}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6342,22 +6406,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6374,29 +6448,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24E481-2892-4859-BE4E-2BB32043A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A06CA2-791A-4B55-9114-1EF63582DB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1860" windowWidth="18630" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
         </r>
@@ -592,7 +592,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2386,6 +2386,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2413,68 +2470,77 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3187,11 +3253,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="68"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="firstColumn" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3809,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,32 +3936,32 @@
         <v>56</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="183" t="s">
+      <c r="G4" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="183" t="s">
+      <c r="K4" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="O4" s="183" t="s">
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="S4" s="177" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="178"/>
-      <c r="U4" s="179"/>
-      <c r="W4" s="180" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="W4" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="182"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4859,35 +4925,35 @@
       <c r="C33" s="96"/>
       <c r="D33" s="96"/>
       <c r="E33" s="96"/>
-      <c r="G33" s="156" t="s">
+      <c r="G33" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="157"/>
-      <c r="I33" s="158"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="177"/>
       <c r="J33" s="97"/>
-      <c r="K33" s="156" t="s">
+      <c r="K33" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="157"/>
-      <c r="M33" s="158"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="177"/>
       <c r="N33" s="97"/>
-      <c r="O33" s="159" t="s">
+      <c r="O33" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="161"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="180"/>
       <c r="R33" s="98"/>
-      <c r="S33" s="162" t="s">
+      <c r="S33" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="T33" s="163"/>
-      <c r="U33" s="164"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="183"/>
       <c r="V33" s="98"/>
-      <c r="W33" s="163" t="s">
+      <c r="W33" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="164"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="183"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
@@ -5631,11 +5697,11 @@
       <c r="A61" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="171" t="s">
+      <c r="B61" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="172"/>
-      <c r="D61" s="173"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="31"/>
       <c r="G61" s="54"/>
       <c r="H61" s="5"/>
@@ -5657,11 +5723,11 @@
       <c r="A62" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="175"/>
-      <c r="D62" s="176"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="32"/>
       <c r="G62" s="54"/>
       <c r="H62" s="5"/>
@@ -5683,11 +5749,11 @@
       <c r="A63" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="175"/>
-      <c r="D63" s="176"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="32"/>
       <c r="G63" s="54"/>
       <c r="H63" s="5"/>
@@ -5709,11 +5775,11 @@
       <c r="A64" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="175"/>
-      <c r="D64" s="176"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="32"/>
       <c r="G64" s="54"/>
       <c r="H64" s="5"/>
@@ -5735,11 +5801,11 @@
       <c r="A65" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="174" t="s">
+      <c r="B65" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="175"/>
-      <c r="D65" s="176"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="32" t="s">
         <v>24</v>
       </c>
@@ -5789,9 +5855,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="171"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5811,9 +5877,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5833,9 +5899,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="167"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="171"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5855,9 +5921,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
+      <c r="B70" s="169"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5877,9 +5943,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="168"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="170"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="174"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -5913,37 +5979,61 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V8:AG10 B8:R10 A11:AG32">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="63" priority="69">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="62" priority="70">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61:Y71">
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="68">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S61:U71">
+    <cfRule type="expression" dxfId="59" priority="65">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61:Q71">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:M71">
     <cfRule type="expression" dxfId="55" priority="61">
       <formula>$C61="x"</formula>
     </cfRule>
@@ -5951,7 +6041,7 @@
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S61:U71">
+  <conditionalFormatting sqref="G61:I71">
     <cfRule type="expression" dxfId="53" priority="59">
       <formula>$C61="x"</formula>
     </cfRule>
@@ -5959,71 +6049,71 @@
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:Q71">
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:M71">
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61:I71">
-    <cfRule type="expression" dxfId="47" priority="53">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S8:U10">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:AE59">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35:AG40 A47:Y47 AA41:AG58 B40 A40:A42 C40:F42 A34:AG34 A33:F33 J33 N33 R33:AG33 A35:F39 A43:F46 N35:N46 J35:J46 R35:R46 A48:R58">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:O36">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q36">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:O46">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$D37="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:Q46">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$D37="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K36">
     <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6031,15 +6121,15 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O46">
+  <conditionalFormatting sqref="L35:M36">
     <cfRule type="expression" dxfId="33" priority="27">
-      <formula>$C37="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="28">
-      <formula>$D37="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:Q46">
+  <conditionalFormatting sqref="K37:K46">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C37="x"</formula>
     </cfRule>
@@ -6047,15 +6137,15 @@
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K36">
+  <conditionalFormatting sqref="L37:M46">
     <cfRule type="expression" dxfId="29" priority="23">
-      <formula>$C35="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="24">
-      <formula>$D35="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:M36">
+  <conditionalFormatting sqref="G35:G36">
     <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6063,15 +6153,15 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K46">
+  <conditionalFormatting sqref="H35:I36">
     <cfRule type="expression" dxfId="25" priority="19">
-      <formula>$C37="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="20">
-      <formula>$D37="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:M46">
+  <conditionalFormatting sqref="G37:G46">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C37="x"</formula>
     </cfRule>
@@ -6079,15 +6169,15 @@
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G36">
+  <conditionalFormatting sqref="H37:I46">
     <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C35="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$D35="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I36">
+  <conditionalFormatting sqref="S35:Y45">
     <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6095,83 +6185,83 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G46">
+  <conditionalFormatting sqref="S48:Y57">
     <cfRule type="expression" dxfId="17" priority="11">
-      <formula>$C37="x"</formula>
+      <formula>$C48="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="12">
-      <formula>$D37="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:I46">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C37="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$D37="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S35:Y45">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$D35="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S48:Y57">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$C48="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D48="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:Y58">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C58="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:Y46">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z55">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="11" priority="45">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="10" priority="46">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z41 Z46:Z53">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="9" priority="47">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54 Z42:Z45">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="7" priority="49">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="6" priority="50">
       <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U49:U57 U48 U58 Y48:Y58 I61:I71 M61:M71 Q61:Q70 Q71 U61:U71 Y61:Y71" xr:uid="{4A0F3C2B-1184-4B31-81A6-C920B66CDE27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 I61:I71 M61:M71 Q61:Q71 U61:U71 Y61:Y71" xr:uid="{4A0F3C2B-1184-4B31-81A6-C920B66CDE27}">
       <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6183,21 +6273,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6406,32 +6481,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6448,4 +6513,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAP_C4C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFD3CB-AB2E-4AE0-9BCD-1D5D4E553D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ACA3F-3881-4A34-9DA5-B5F0767F071C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="129">
   <si>
     <t>Website</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>AccountName</t>
+  </si>
+  <si>
+    <t>SAP C/4HANA: Ansprechpartner</t>
+  </si>
+  <si>
+    <t>SAP C/4HANA:Kunde</t>
   </si>
 </sst>
 </file>
@@ -2332,6 +2338,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2415,9 +2424,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3758,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,36 +3825,36 @@
         <v>58</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="161" t="s">
+      <c r="G4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="161" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="O4" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="S4" s="155" t="s">
+      <c r="K4" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="156"/>
-      <c r="U4" s="157"/>
-      <c r="W4" s="158" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="W4" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="155" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="47"/>
@@ -4808,35 +4814,35 @@
       <c r="C33" s="96"/>
       <c r="D33" s="96"/>
       <c r="E33" s="96"/>
-      <c r="G33" s="174" t="s">
+      <c r="G33" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="177"/>
       <c r="J33" s="97"/>
-      <c r="K33" s="174" t="s">
+      <c r="K33" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="175"/>
-      <c r="M33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="177"/>
       <c r="N33" s="97"/>
-      <c r="O33" s="177" t="s">
+      <c r="O33" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="179"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="180"/>
       <c r="R33" s="98"/>
-      <c r="S33" s="180" t="s">
+      <c r="S33" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="T33" s="181"/>
-      <c r="U33" s="182"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="183"/>
       <c r="V33" s="98"/>
-      <c r="W33" s="181" t="s">
+      <c r="W33" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="183"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
@@ -5580,11 +5586,11 @@
       <c r="A61" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="163"/>
-      <c r="D61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="31"/>
       <c r="G61" s="54"/>
       <c r="H61" s="5"/>
@@ -5606,11 +5612,11 @@
       <c r="A62" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="166"/>
-      <c r="D62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="32"/>
       <c r="G62" s="54"/>
       <c r="H62" s="5"/>
@@ -5632,11 +5638,11 @@
       <c r="A63" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="32"/>
       <c r="G63" s="54"/>
       <c r="H63" s="5"/>
@@ -5658,11 +5664,11 @@
       <c r="A64" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="165" t="s">
+      <c r="B64" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="32"/>
       <c r="G64" s="54"/>
       <c r="H64" s="5"/>
@@ -5684,11 +5690,11 @@
       <c r="A65" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="165" t="s">
+      <c r="B65" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="166"/>
-      <c r="D65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="32" t="s">
         <v>24</v>
       </c>
@@ -5738,9 +5744,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="171"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5760,9 +5766,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5782,9 +5788,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="171"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5804,9 +5810,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="168"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170"/>
+      <c r="B70" s="169"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5826,9 +5832,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="172"/>
-      <c r="D71" s="173"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="174"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -6117,14 +6123,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61:I71 Y61:Y71 U61:U71 Q61:Q71 M61:M71 I7:I31 Q7:Q31 U7:U31 M7:M31 Y7:Y31 Q48:Q58 I48:I58 M48:M58" xr:uid="{48717D9B-040D-47A7-B696-AE48B2CFBD90}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35:Y46 Q35:Q46 M35:M46 I35:I46 U35:U46 U48:U58 Y48:Y58" xr:uid="{AE53E91A-327D-4299-9B86-BD1A9B68A3CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y48" xr:uid="{AE53E91A-327D-4299-9B86-BD1A9B68A3CF}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 Y35:Y46 U35:U46 Q35:Q46 M35:M46 I35:I46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y49:Y58 Y61:Y71 U61:U70 Q61:Q71 U71 M61:M71 I61:I71" xr:uid="{D1172A7D-931B-4A53-B624-550F797C7DA4}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ACA3F-3881-4A34-9DA5-B5F0767F071C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91ED5B3-415A-42E1-BB52-064FA1D80DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -233,9 +233,6 @@
     <t>Export-Art</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <t>z.B. exportType</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>SAP C/4HANA:Kunde</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -2341,63 +2341,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2423,6 +2366,63 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,45 +3819,47 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="162" t="s">
+      <c r="G4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="O4" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="O4" s="162" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="S4" s="156" t="s">
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="S4" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="157"/>
-      <c r="U4" s="158"/>
-      <c r="W4" s="159" t="s">
+      <c r="T4" s="178"/>
+      <c r="U4" s="179"/>
+      <c r="W4" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="182"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="47" t="s">
+        <v>128</v>
+      </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="37" t="s">
@@ -3935,16 +3937,14 @@
     </row>
     <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>55</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
       <c r="G8" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -3983,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>18</v>
@@ -3993,7 +3993,7 @@
         <v>45</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M9" s="85" t="s">
         <v>18</v>
@@ -4014,17 +4014,17 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="35"/>
       <c r="G10" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>17</v>
@@ -4052,10 +4052,10 @@
       <c r="D11" s="24"/>
       <c r="E11" s="35"/>
       <c r="G11" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="I11" s="85" t="s">
         <v>17</v>
@@ -4089,10 +4089,10 @@
       <c r="D12" s="24"/>
       <c r="E12" s="35"/>
       <c r="G12" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I12" s="85" t="s">
         <v>17</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23"/>
@@ -4133,7 +4133,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="55" t="s">
         <v>17</v>
@@ -4157,7 +4157,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="35"/>
       <c r="G14" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>5</v>
@@ -4173,7 +4173,7 @@
         <v>10</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="85" t="s">
         <v>17</v>
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="85" t="s">
         <v>17</v>
@@ -4207,7 +4207,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" s="85" t="s">
         <v>17</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23"/>
@@ -4240,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="85" t="s">
         <v>17</v>
@@ -4250,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" s="85" t="s">
         <v>17</v>
@@ -4283,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="85" t="s">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17" s="85" t="s">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>44</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="85" t="s">
         <v>17</v>
@@ -4323,29 +4323,29 @@
       <c r="D18" s="24"/>
       <c r="E18" s="35"/>
       <c r="G18" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="I18" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M18" s="85" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="85" t="s">
         <v>17</v>
@@ -4369,7 +4369,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="85" t="s">
         <v>17</v>
@@ -4379,7 +4379,7 @@
         <v>43</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M19" s="85" t="s">
         <v>17</v>
@@ -4388,7 +4388,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="85" t="s">
         <v>17</v>
@@ -4412,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="85" t="s">
         <v>17</v>
@@ -4452,20 +4452,20 @@
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
       <c r="G21" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>82</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>83</v>
       </c>
       <c r="I21" s="85" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M21" s="85" t="s">
         <v>17</v>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I23" s="85" t="s">
         <v>17</v>
@@ -4557,10 +4557,10 @@
       <c r="D24" s="24"/>
       <c r="E24" s="35"/>
       <c r="G24" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="I24" s="53" t="s">
         <v>17</v>
@@ -4581,17 +4581,17 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="90"/>
       <c r="D25" s="91"/>
       <c r="E25" s="92"/>
       <c r="G25" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="53" t="s">
         <v>18</v>
@@ -4612,17 +4612,17 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="90"/>
       <c r="D26" s="91"/>
       <c r="E26" s="92"/>
       <c r="G26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="53" t="s">
         <v>18</v>
@@ -4643,17 +4643,17 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="90"/>
       <c r="D27" s="91"/>
       <c r="E27" s="92"/>
       <c r="G27" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="I27" s="53" t="s">
         <v>18</v>
@@ -4674,17 +4674,17 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="90"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
       <c r="G28" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="53" t="s">
         <v>18</v>
@@ -4705,17 +4705,17 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="90"/>
       <c r="D29" s="91"/>
       <c r="E29" s="92"/>
       <c r="G29" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="53" t="s">
         <v>17</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="90"/>
@@ -4750,10 +4750,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="53"/>
       <c r="O30" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q30" s="53" t="s">
         <v>18</v>
@@ -4808,48 +4808,48 @@
     </row>
     <row r="33" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="150" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
       <c r="D33" s="96"/>
       <c r="E33" s="96"/>
-      <c r="G33" s="175" t="s">
+      <c r="G33" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="176"/>
-      <c r="I33" s="177"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="158"/>
       <c r="J33" s="97"/>
-      <c r="K33" s="175" t="s">
+      <c r="K33" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="176"/>
-      <c r="M33" s="177"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="158"/>
       <c r="N33" s="97"/>
-      <c r="O33" s="178" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="180"/>
+      <c r="O33" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="161"/>
       <c r="R33" s="98"/>
-      <c r="S33" s="181" t="s">
-        <v>124</v>
-      </c>
-      <c r="T33" s="182"/>
-      <c r="U33" s="183"/>
+      <c r="S33" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="T33" s="163"/>
+      <c r="U33" s="164"/>
       <c r="V33" s="98"/>
-      <c r="W33" s="182" t="s">
-        <v>124</v>
-      </c>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="183"/>
+      <c r="W33" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="X33" s="163"/>
+      <c r="Y33" s="164"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="100" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>109</v>
       </c>
       <c r="C34" s="101"/>
       <c r="D34" s="101"/>
@@ -4904,15 +4904,15 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="106" t="s">
         <v>110</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>111</v>
       </c>
       <c r="C35" s="107"/>
       <c r="D35" s="106"/>
       <c r="E35" s="108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="52"/>
       <c r="H35" s="6"/>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="113"/>
       <c r="C37" s="114"/>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="113"/>
       <c r="C38" s="114"/>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="113"/>
       <c r="C39" s="114"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="113"/>
       <c r="C40" s="114"/>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="113"/>
       <c r="C41" s="114"/>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="113"/>
       <c r="C42" s="114"/>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="113"/>
       <c r="C43" s="114"/>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="113"/>
       <c r="C44" s="114"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="116"/>
       <c r="C45" s="117"/>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="47" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="151" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="152"/>
       <c r="D47" s="152"/>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107"/>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="113"/>
       <c r="C49" s="114"/>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="113"/>
       <c r="C50" s="114"/>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="113"/>
       <c r="C51" s="114"/>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="113"/>
       <c r="C52" s="114"/>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="113"/>
       <c r="C53" s="114"/>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="113"/>
       <c r="C54" s="114"/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="113"/>
       <c r="C55" s="114"/>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="113"/>
       <c r="C56" s="114"/>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="116"/>
       <c r="C57" s="117"/>
@@ -5586,11 +5586,11 @@
       <c r="A61" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="173"/>
       <c r="E61" s="31"/>
       <c r="G61" s="54"/>
       <c r="H61" s="5"/>
@@ -5612,11 +5612,11 @@
       <c r="A62" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="166" t="s">
+      <c r="B62" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="167"/>
-      <c r="D62" s="168"/>
+      <c r="C62" s="175"/>
+      <c r="D62" s="176"/>
       <c r="E62" s="32"/>
       <c r="G62" s="54"/>
       <c r="H62" s="5"/>
@@ -5638,11 +5638,11 @@
       <c r="A63" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="166" t="s">
+      <c r="B63" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="167"/>
-      <c r="D63" s="168"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="32"/>
       <c r="G63" s="54"/>
       <c r="H63" s="5"/>
@@ -5664,11 +5664,11 @@
       <c r="A64" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="166" t="s">
+      <c r="B64" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="167"/>
-      <c r="D64" s="168"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="32"/>
       <c r="G64" s="54"/>
       <c r="H64" s="5"/>
@@ -5690,16 +5690,16 @@
       <c r="A65" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="166" t="s">
+      <c r="B65" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="167"/>
-      <c r="D65" s="168"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="176"/>
       <c r="E65" s="32" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>25</v>
@@ -5744,9 +5744,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="171"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5766,9 +5766,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="171"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="167"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5788,9 +5788,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="171"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="167"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5810,9 +5810,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="169"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="171"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5832,9 +5832,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="172"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="174"/>
+      <c r="B71" s="168"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="170"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -5868,26 +5868,26 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V8:AG10 B8:R10 A11:AG32">
@@ -6140,6 +6140,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6348,15 +6357,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6364,6 +6364,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6378,14 +6386,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA04581-AD20-4759-A4B3-3484581DB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC104515-2FD3-4C3B-BE10-99E50F313099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4725" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="136">
   <si>
     <t>Website</t>
   </si>
@@ -2036,63 +2036,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2120,20 +2077,63 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,32 +3336,32 @@
         <v>57</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="O4" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="S4" s="105" t="s">
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="S4" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107"/>
-      <c r="W4" s="108" t="s">
+      <c r="T4" s="135"/>
+      <c r="U4" s="136"/>
+      <c r="W4" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="110"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="139"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3438,7 +3438,7 @@
       <c r="G7" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="105" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="57" t="s">
@@ -3446,16 +3446,16 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="59"/>
-      <c r="L7" s="133"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="57"/>
       <c r="O7" s="59"/>
-      <c r="P7" s="133"/>
+      <c r="P7" s="105"/>
       <c r="Q7" s="57"/>
       <c r="S7" s="48"/>
-      <c r="T7" s="133"/>
+      <c r="T7" s="105"/>
       <c r="U7" s="49"/>
       <c r="W7" s="48"/>
-      <c r="X7" s="133"/>
+      <c r="X7" s="105"/>
       <c r="Y7" s="49"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
       <c r="G8" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="105" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="57" t="s">
@@ -3481,16 +3481,16 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="59"/>
-      <c r="L8" s="133"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="57"/>
       <c r="O8" s="59"/>
-      <c r="P8" s="133"/>
+      <c r="P8" s="105"/>
       <c r="Q8" s="57"/>
       <c r="S8" s="48"/>
-      <c r="T8" s="133"/>
+      <c r="T8" s="105"/>
       <c r="U8" s="49"/>
       <c r="W8" s="48"/>
-      <c r="X8" s="133"/>
+      <c r="X8" s="105"/>
       <c r="Y8" s="49"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3500,20 +3500,20 @@
       <c r="D9" s="15"/>
       <c r="E9" s="25"/>
       <c r="G9" s="59"/>
-      <c r="H9" s="133"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="57"/>
       <c r="J9" s="1"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="133"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="57"/>
       <c r="O9" s="59"/>
-      <c r="P9" s="133"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="57"/>
       <c r="S9" s="48"/>
-      <c r="T9" s="133"/>
+      <c r="T9" s="105"/>
       <c r="U9" s="49"/>
       <c r="W9" s="48"/>
-      <c r="X9" s="133"/>
+      <c r="X9" s="105"/>
       <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
       <c r="G10" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="133" t="s">
+      <c r="H10" s="105" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="57" t="s">
@@ -3535,21 +3535,23 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="59"/>
-      <c r="L10" s="133"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="57"/>
       <c r="N10"/>
       <c r="O10" s="59"/>
-      <c r="P10" s="133"/>
+      <c r="P10" s="105"/>
       <c r="Q10" s="57"/>
       <c r="S10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="133" t="s">
+      <c r="T10" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="49"/>
+      <c r="U10" s="49" t="s">
+        <v>17</v>
+      </c>
       <c r="W10" s="48"/>
-      <c r="X10" s="133"/>
+      <c r="X10" s="105"/>
       <c r="Y10" s="49"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3563,7 +3565,7 @@
       <c r="G11" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="105" t="s">
         <v>68</v>
       </c>
       <c r="I11" s="57" t="s">
@@ -3573,24 +3575,26 @@
       <c r="K11" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="133" t="s">
+      <c r="L11" s="105" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="57" t="s">
         <v>18</v>
       </c>
       <c r="O11" s="59"/>
-      <c r="P11" s="133"/>
+      <c r="P11" s="105"/>
       <c r="Q11" s="57"/>
       <c r="S11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="133" t="s">
+      <c r="T11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="49"/>
+      <c r="U11" s="49" t="s">
+        <v>17</v>
+      </c>
       <c r="W11" s="48"/>
-      <c r="X11" s="133"/>
+      <c r="X11" s="105"/>
       <c r="Y11" s="49"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -3604,7 +3608,7 @@
       <c r="G12" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="105" t="s">
         <v>105</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -3612,16 +3616,16 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="59"/>
-      <c r="L12" s="133"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="57"/>
       <c r="O12" s="59"/>
-      <c r="P12" s="133"/>
+      <c r="P12" s="105"/>
       <c r="Q12" s="57"/>
       <c r="S12" s="48"/>
-      <c r="T12" s="133"/>
+      <c r="T12" s="105"/>
       <c r="U12" s="49"/>
       <c r="W12" s="48"/>
-      <c r="X12" s="133"/>
+      <c r="X12" s="105"/>
       <c r="Y12" s="49"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3635,7 +3639,7 @@
       <c r="G13" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="105" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -3645,20 +3649,20 @@
       <c r="K13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="133" t="s">
+      <c r="L13" s="105" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="59"/>
-      <c r="P13" s="133"/>
+      <c r="P13" s="105"/>
       <c r="Q13" s="57"/>
       <c r="S13" s="48"/>
-      <c r="T13" s="133"/>
+      <c r="T13" s="105"/>
       <c r="U13" s="49"/>
       <c r="W13" s="48"/>
-      <c r="X13" s="133"/>
+      <c r="X13" s="105"/>
       <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3672,7 +3676,7 @@
       <c r="G14" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="133" t="s">
+      <c r="H14" s="105" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="57" t="s">
@@ -3682,20 +3686,20 @@
       <c r="K14" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="133" t="s">
+      <c r="L14" s="105" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="59"/>
-      <c r="P14" s="133"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="57"/>
       <c r="S14" s="48"/>
-      <c r="T14" s="133"/>
+      <c r="T14" s="105"/>
       <c r="U14" s="49"/>
       <c r="W14" s="48"/>
-      <c r="X14" s="133"/>
+      <c r="X14" s="105"/>
       <c r="Y14" s="49"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -3707,26 +3711,26 @@
       <c r="D15" s="15"/>
       <c r="E15" s="25"/>
       <c r="G15" s="59"/>
-      <c r="H15" s="133"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="57"/>
       <c r="J15" s="1"/>
       <c r="K15" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="133" t="s">
+      <c r="L15" s="105" t="s">
         <v>92</v>
       </c>
       <c r="M15" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="59"/>
-      <c r="P15" s="133"/>
+      <c r="P15" s="105"/>
       <c r="Q15" s="57"/>
       <c r="S15" s="48"/>
-      <c r="T15" s="133"/>
+      <c r="T15" s="105"/>
       <c r="U15" s="49"/>
       <c r="W15" s="48"/>
-      <c r="X15" s="133"/>
+      <c r="X15" s="105"/>
       <c r="Y15" s="49"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3740,7 +3744,7 @@
       <c r="G16" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="133" t="s">
+      <c r="H16" s="105" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="57" t="s">
@@ -3748,22 +3752,22 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="59"/>
-      <c r="L16" s="133"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="57"/>
       <c r="O16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="133" t="s">
+      <c r="P16" s="105" t="s">
         <v>125</v>
       </c>
       <c r="Q16" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="48"/>
-      <c r="T16" s="133"/>
+      <c r="T16" s="105"/>
       <c r="U16" s="49"/>
       <c r="W16" s="48"/>
-      <c r="X16" s="133"/>
+      <c r="X16" s="105"/>
       <c r="Y16" s="49"/>
     </row>
     <row r="17" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3777,7 +3781,7 @@
       <c r="G17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="105" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="57" t="s">
@@ -3787,7 +3791,7 @@
       <c r="K17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="105" t="s">
         <v>98</v>
       </c>
       <c r="M17" s="57" t="s">
@@ -3796,17 +3800,17 @@
       <c r="O17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="133" t="s">
+      <c r="P17" s="105" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="48"/>
-      <c r="T17" s="133"/>
+      <c r="T17" s="105"/>
       <c r="U17" s="49"/>
       <c r="W17" s="48"/>
-      <c r="X17" s="133"/>
+      <c r="X17" s="105"/>
       <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -3820,7 +3824,7 @@
       <c r="G18" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="105" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -3830,7 +3834,7 @@
       <c r="K18" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="133" t="s">
+      <c r="L18" s="105" t="s">
         <v>99</v>
       </c>
       <c r="M18" s="57" t="s">
@@ -3839,17 +3843,17 @@
       <c r="O18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="133" t="s">
+      <c r="P18" s="105" t="s">
         <v>7</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="48"/>
-      <c r="T18" s="133"/>
+      <c r="T18" s="105"/>
       <c r="U18" s="49"/>
       <c r="W18" s="48"/>
-      <c r="X18" s="133"/>
+      <c r="X18" s="105"/>
       <c r="Y18" s="49"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -3863,7 +3867,7 @@
       <c r="G19" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="105" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="57" t="s">
@@ -3873,7 +3877,7 @@
       <c r="K19" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="133" t="s">
+      <c r="L19" s="105" t="s">
         <v>101</v>
       </c>
       <c r="M19" s="57" t="s">
@@ -3882,17 +3886,17 @@
       <c r="O19" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="133" t="s">
+      <c r="P19" s="105" t="s">
         <v>97</v>
       </c>
       <c r="Q19" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S19" s="48"/>
-      <c r="T19" s="133"/>
+      <c r="T19" s="105"/>
       <c r="U19" s="49"/>
       <c r="W19" s="48"/>
-      <c r="X19" s="133"/>
+      <c r="X19" s="105"/>
       <c r="Y19" s="49"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -3906,7 +3910,7 @@
       <c r="G20" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="105" t="s">
         <v>78</v>
       </c>
       <c r="I20" s="57" t="s">
@@ -3916,7 +3920,7 @@
       <c r="K20" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="133" t="s">
+      <c r="L20" s="105" t="s">
         <v>100</v>
       </c>
       <c r="M20" s="57" t="s">
@@ -3925,17 +3929,17 @@
       <c r="O20" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="133" t="s">
+      <c r="P20" s="105" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S20" s="48"/>
-      <c r="T20" s="133"/>
+      <c r="T20" s="105"/>
       <c r="U20" s="49"/>
       <c r="W20" s="48"/>
-      <c r="X20" s="133"/>
+      <c r="X20" s="105"/>
       <c r="Y20" s="49"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3949,7 +3953,7 @@
       <c r="G21" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="105" t="s">
         <v>79</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -3959,7 +3963,7 @@
       <c r="K21" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="133" t="s">
+      <c r="L21" s="105" t="s">
         <v>102</v>
       </c>
       <c r="M21" s="57" t="s">
@@ -3968,17 +3972,17 @@
       <c r="O21" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="P21" s="133" t="s">
+      <c r="P21" s="105" t="s">
         <v>93</v>
       </c>
       <c r="Q21" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S21" s="48"/>
-      <c r="T21" s="133"/>
+      <c r="T21" s="105"/>
       <c r="U21" s="49"/>
       <c r="W21" s="48"/>
-      <c r="X21" s="133"/>
+      <c r="X21" s="105"/>
       <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -3992,7 +3996,7 @@
       <c r="G22" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="133" t="s">
+      <c r="H22" s="105" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="57" t="s">
@@ -4002,7 +4006,7 @@
       <c r="K22" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="133" t="s">
+      <c r="L22" s="105" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="57" t="s">
@@ -4011,17 +4015,17 @@
       <c r="O22" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="133" t="s">
+      <c r="P22" s="105" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="57" t="s">
         <v>17</v>
       </c>
       <c r="S22" s="48"/>
-      <c r="T22" s="133"/>
+      <c r="T22" s="105"/>
       <c r="U22" s="49"/>
       <c r="W22" s="48"/>
-      <c r="X22" s="133"/>
+      <c r="X22" s="105"/>
       <c r="Y22" s="49"/>
     </row>
     <row r="23" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4035,7 +4039,7 @@
       <c r="G23" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="133" t="s">
+      <c r="H23" s="105" t="s">
         <v>82</v>
       </c>
       <c r="I23" s="57" t="s">
@@ -4045,20 +4049,20 @@
       <c r="K23" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="L23" s="133" t="s">
+      <c r="L23" s="105" t="s">
         <v>94</v>
       </c>
       <c r="M23" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="59"/>
-      <c r="P23" s="133"/>
+      <c r="P23" s="105"/>
       <c r="Q23" s="57"/>
       <c r="S23" s="48"/>
-      <c r="T23" s="133"/>
+      <c r="T23" s="105"/>
       <c r="U23" s="49"/>
       <c r="W23" s="48"/>
-      <c r="X23" s="133"/>
+      <c r="X23" s="105"/>
       <c r="Y23" s="49"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -4070,26 +4074,26 @@
       <c r="D24" s="15"/>
       <c r="E24" s="25"/>
       <c r="G24" s="59"/>
-      <c r="H24" s="133"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="57"/>
       <c r="J24" s="1"/>
       <c r="K24" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="133" t="s">
+      <c r="L24" s="105" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="59"/>
-      <c r="P24" s="133"/>
+      <c r="P24" s="105"/>
       <c r="Q24" s="57"/>
       <c r="S24" s="48"/>
-      <c r="T24" s="133"/>
+      <c r="T24" s="105"/>
       <c r="U24" s="49"/>
       <c r="W24" s="48"/>
-      <c r="X24" s="133"/>
+      <c r="X24" s="105"/>
       <c r="Y24" s="49"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -4103,7 +4107,7 @@
       <c r="G25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="133" t="s">
+      <c r="H25" s="105" t="s">
         <v>124</v>
       </c>
       <c r="I25" s="57" t="s">
@@ -4113,20 +4117,20 @@
       <c r="K25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="133" t="s">
+      <c r="L25" s="105" t="s">
         <v>9</v>
       </c>
       <c r="M25" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O25" s="59"/>
-      <c r="P25" s="133"/>
+      <c r="P25" s="105"/>
       <c r="Q25" s="57"/>
       <c r="S25" s="48"/>
-      <c r="T25" s="133"/>
+      <c r="T25" s="105"/>
       <c r="U25" s="49"/>
       <c r="W25" s="48"/>
-      <c r="X25" s="133"/>
+      <c r="X25" s="105"/>
       <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -4140,7 +4144,7 @@
       <c r="G26" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="133" t="s">
+      <c r="H26" s="105" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="57" t="s">
@@ -4148,16 +4152,16 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="133"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="57"/>
       <c r="O26" s="59"/>
-      <c r="P26" s="133"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="57"/>
       <c r="S26" s="48"/>
-      <c r="T26" s="133"/>
+      <c r="T26" s="105"/>
       <c r="U26" s="49"/>
       <c r="W26" s="48"/>
-      <c r="X26" s="133"/>
+      <c r="X26" s="105"/>
       <c r="Y26" s="49"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -4171,7 +4175,7 @@
       <c r="G27" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="133" t="s">
+      <c r="H27" s="105" t="s">
         <v>85</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -4179,16 +4183,16 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="133"/>
+      <c r="L27" s="105"/>
       <c r="M27" s="57"/>
       <c r="O27" s="59"/>
-      <c r="P27" s="133"/>
+      <c r="P27" s="105"/>
       <c r="Q27" s="57"/>
       <c r="S27" s="48"/>
-      <c r="T27" s="133"/>
+      <c r="T27" s="105"/>
       <c r="U27" s="49"/>
       <c r="W27" s="48"/>
-      <c r="X27" s="133"/>
+      <c r="X27" s="105"/>
       <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4202,7 +4206,7 @@
       <c r="G28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="133" t="s">
+      <c r="H28" s="105" t="s">
         <v>86</v>
       </c>
       <c r="I28" s="57" t="s">
@@ -4210,16 +4214,16 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="133"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="57"/>
       <c r="O28" s="59"/>
-      <c r="P28" s="133"/>
+      <c r="P28" s="105"/>
       <c r="Q28" s="57"/>
       <c r="S28" s="48"/>
-      <c r="T28" s="133"/>
+      <c r="T28" s="105"/>
       <c r="U28" s="49"/>
       <c r="W28" s="48"/>
-      <c r="X28" s="133"/>
+      <c r="X28" s="105"/>
       <c r="Y28" s="49"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -4233,7 +4237,7 @@
       <c r="G29" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="133" t="s">
+      <c r="H29" s="105" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="57" t="s">
@@ -4241,16 +4245,16 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="59"/>
-      <c r="L29" s="133"/>
+      <c r="L29" s="105"/>
       <c r="M29" s="57"/>
       <c r="O29" s="59"/>
-      <c r="P29" s="133"/>
+      <c r="P29" s="105"/>
       <c r="Q29" s="57"/>
       <c r="S29" s="48"/>
-      <c r="T29" s="133"/>
+      <c r="T29" s="105"/>
       <c r="U29" s="49"/>
       <c r="W29" s="48"/>
-      <c r="X29" s="133"/>
+      <c r="X29" s="105"/>
       <c r="Y29" s="49"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -4264,7 +4268,7 @@
       <c r="G30" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="133" t="s">
+      <c r="H30" s="105" t="s">
         <v>89</v>
       </c>
       <c r="I30" s="57" t="s">
@@ -4272,16 +4276,16 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="59"/>
-      <c r="L30" s="133"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="57"/>
       <c r="O30" s="59"/>
-      <c r="P30" s="133"/>
+      <c r="P30" s="105"/>
       <c r="Q30" s="57"/>
       <c r="S30" s="48"/>
-      <c r="T30" s="133"/>
+      <c r="T30" s="105"/>
       <c r="U30" s="49"/>
       <c r="W30" s="48"/>
-      <c r="X30" s="133"/>
+      <c r="X30" s="105"/>
       <c r="Y30" s="49"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -4295,7 +4299,7 @@
       <c r="G31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="133" t="s">
+      <c r="H31" s="105" t="s">
         <v>90</v>
       </c>
       <c r="I31" s="57" t="s">
@@ -4303,16 +4307,16 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="59"/>
-      <c r="L31" s="133"/>
+      <c r="L31" s="105"/>
       <c r="M31" s="57"/>
       <c r="O31" s="59"/>
-      <c r="P31" s="133"/>
+      <c r="P31" s="105"/>
       <c r="Q31" s="57"/>
       <c r="S31" s="48"/>
-      <c r="T31" s="133"/>
+      <c r="T31" s="105"/>
       <c r="U31" s="49"/>
       <c r="W31" s="48"/>
-      <c r="X31" s="133"/>
+      <c r="X31" s="105"/>
       <c r="Y31" s="49"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -4324,26 +4328,26 @@
       <c r="D32" s="15"/>
       <c r="E32" s="25"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="133"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="57"/>
       <c r="J32" s="1"/>
       <c r="K32" s="59"/>
-      <c r="L32" s="133"/>
+      <c r="L32" s="105"/>
       <c r="M32" s="57"/>
       <c r="O32" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="P32" s="133" t="s">
+      <c r="P32" s="105" t="s">
         <v>96</v>
       </c>
       <c r="Q32" s="57" t="s">
         <v>18</v>
       </c>
       <c r="S32" s="48"/>
-      <c r="T32" s="133"/>
+      <c r="T32" s="105"/>
       <c r="U32" s="49"/>
       <c r="W32" s="48"/>
-      <c r="X32" s="133"/>
+      <c r="X32" s="105"/>
       <c r="Y32" s="49"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4353,20 +4357,20 @@
       <c r="D33" s="15"/>
       <c r="E33" s="25"/>
       <c r="G33" s="59"/>
-      <c r="H33" s="133"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="57"/>
       <c r="J33" s="1"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="133"/>
+      <c r="L33" s="105"/>
       <c r="M33" s="57"/>
       <c r="O33" s="59"/>
-      <c r="P33" s="133"/>
+      <c r="P33" s="105"/>
       <c r="Q33" s="57"/>
       <c r="S33" s="48"/>
-      <c r="T33" s="133"/>
+      <c r="T33" s="105"/>
       <c r="U33" s="49"/>
       <c r="W33" s="48"/>
-      <c r="X33" s="133"/>
+      <c r="X33" s="105"/>
       <c r="Y33" s="49"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4376,20 +4380,20 @@
       <c r="D34" s="15"/>
       <c r="E34" s="25"/>
       <c r="G34" s="59"/>
-      <c r="H34" s="133"/>
+      <c r="H34" s="105"/>
       <c r="I34" s="57"/>
       <c r="J34" s="1"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="133"/>
+      <c r="L34" s="105"/>
       <c r="M34" s="57"/>
       <c r="O34" s="59"/>
-      <c r="P34" s="133"/>
+      <c r="P34" s="105"/>
       <c r="Q34" s="57"/>
       <c r="S34" s="48"/>
-      <c r="T34" s="133"/>
+      <c r="T34" s="105"/>
       <c r="U34" s="49"/>
       <c r="W34" s="48"/>
-      <c r="X34" s="133"/>
+      <c r="X34" s="105"/>
       <c r="Y34" s="49"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4399,20 +4403,20 @@
       <c r="D35" s="17"/>
       <c r="E35" s="26"/>
       <c r="G35" s="41"/>
-      <c r="H35" s="134"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="42"/>
       <c r="J35" s="1"/>
       <c r="K35" s="41"/>
-      <c r="L35" s="134"/>
+      <c r="L35" s="106"/>
       <c r="M35" s="42"/>
       <c r="O35" s="41"/>
-      <c r="P35" s="134"/>
+      <c r="P35" s="106"/>
       <c r="Q35" s="42"/>
       <c r="S35" s="50"/>
-      <c r="T35" s="135"/>
+      <c r="T35" s="107"/>
       <c r="U35" s="51"/>
       <c r="W35" s="50"/>
-      <c r="X35" s="135"/>
+      <c r="X35" s="107"/>
       <c r="Y35" s="51"/>
     </row>
     <row r="36" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4441,35 +4445,35 @@
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
-      <c r="G37" s="124" t="s">
+      <c r="G37" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="125"/>
-      <c r="I37" s="126"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115"/>
       <c r="J37" s="62"/>
-      <c r="K37" s="124" t="s">
+      <c r="K37" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
       <c r="N37" s="62"/>
-      <c r="O37" s="127" t="s">
+      <c r="O37" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="129"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="118"/>
       <c r="R37" s="63"/>
-      <c r="S37" s="130" t="s">
+      <c r="S37" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="T37" s="131"/>
-      <c r="U37" s="132"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="121"/>
       <c r="V37" s="63"/>
-      <c r="W37" s="131" t="s">
+      <c r="W37" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="X37" s="131"/>
-      <c r="Y37" s="132"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="121"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
@@ -4542,19 +4546,19 @@
         <v>111</v>
       </c>
       <c r="G39" s="59"/>
-      <c r="H39" s="133"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="57"/>
       <c r="K39" s="59"/>
-      <c r="L39" s="133"/>
+      <c r="L39" s="105"/>
       <c r="M39" s="57"/>
       <c r="O39" s="59"/>
-      <c r="P39" s="133"/>
+      <c r="P39" s="105"/>
       <c r="Q39" s="57"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="133"/>
+      <c r="T39" s="105"/>
       <c r="U39" s="49"/>
       <c r="W39" s="48"/>
-      <c r="X39" s="133"/>
+      <c r="X39" s="105"/>
       <c r="Y39" s="49"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -4566,19 +4570,19 @@
       <c r="D40" s="74"/>
       <c r="E40" s="73"/>
       <c r="G40" s="59"/>
-      <c r="H40" s="133"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="57"/>
       <c r="K40" s="59"/>
-      <c r="L40" s="133"/>
+      <c r="L40" s="105"/>
       <c r="M40" s="57"/>
       <c r="O40" s="59"/>
-      <c r="P40" s="133"/>
+      <c r="P40" s="105"/>
       <c r="Q40" s="57"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="133"/>
+      <c r="T40" s="105"/>
       <c r="U40" s="49"/>
       <c r="W40" s="48"/>
-      <c r="X40" s="133"/>
+      <c r="X40" s="105"/>
       <c r="Y40" s="49"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4590,19 +4594,19 @@
       <c r="D41" s="76"/>
       <c r="E41" s="78"/>
       <c r="G41" s="59"/>
-      <c r="H41" s="133"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="57"/>
       <c r="K41" s="59"/>
-      <c r="L41" s="133"/>
+      <c r="L41" s="105"/>
       <c r="M41" s="57"/>
       <c r="O41" s="59"/>
-      <c r="P41" s="133"/>
+      <c r="P41" s="105"/>
       <c r="Q41" s="57"/>
       <c r="S41" s="48"/>
-      <c r="T41" s="133"/>
+      <c r="T41" s="105"/>
       <c r="U41" s="49"/>
       <c r="W41" s="48"/>
-      <c r="X41" s="133"/>
+      <c r="X41" s="105"/>
       <c r="Y41" s="49"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -4614,19 +4618,19 @@
       <c r="D42" s="76"/>
       <c r="E42" s="78"/>
       <c r="G42" s="59"/>
-      <c r="H42" s="133"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="57"/>
       <c r="K42" s="59"/>
-      <c r="L42" s="133"/>
+      <c r="L42" s="105"/>
       <c r="M42" s="57"/>
       <c r="O42" s="59"/>
-      <c r="P42" s="133"/>
+      <c r="P42" s="105"/>
       <c r="Q42" s="57"/>
       <c r="S42" s="48"/>
-      <c r="T42" s="133"/>
+      <c r="T42" s="105"/>
       <c r="U42" s="49"/>
       <c r="W42" s="48"/>
-      <c r="X42" s="133"/>
+      <c r="X42" s="105"/>
       <c r="Y42" s="49"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -4638,19 +4642,19 @@
       <c r="D43" s="76"/>
       <c r="E43" s="78"/>
       <c r="G43" s="59"/>
-      <c r="H43" s="133"/>
+      <c r="H43" s="105"/>
       <c r="I43" s="57"/>
       <c r="K43" s="59"/>
-      <c r="L43" s="133"/>
+      <c r="L43" s="105"/>
       <c r="M43" s="57"/>
       <c r="O43" s="59"/>
-      <c r="P43" s="133"/>
+      <c r="P43" s="105"/>
       <c r="Q43" s="57"/>
       <c r="S43" s="48"/>
-      <c r="T43" s="133"/>
+      <c r="T43" s="105"/>
       <c r="U43" s="49"/>
       <c r="W43" s="48"/>
-      <c r="X43" s="133"/>
+      <c r="X43" s="105"/>
       <c r="Y43" s="49"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -4662,19 +4666,19 @@
       <c r="D44" s="76"/>
       <c r="E44" s="78"/>
       <c r="G44" s="59"/>
-      <c r="H44" s="133"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="57"/>
       <c r="K44" s="59"/>
-      <c r="L44" s="133"/>
+      <c r="L44" s="105"/>
       <c r="M44" s="57"/>
       <c r="O44" s="59"/>
-      <c r="P44" s="133"/>
+      <c r="P44" s="105"/>
       <c r="Q44" s="57"/>
       <c r="S44" s="48"/>
-      <c r="T44" s="133"/>
+      <c r="T44" s="105"/>
       <c r="U44" s="49"/>
       <c r="W44" s="48"/>
-      <c r="X44" s="133"/>
+      <c r="X44" s="105"/>
       <c r="Y44" s="49"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4686,19 +4690,19 @@
       <c r="D45" s="76"/>
       <c r="E45" s="78"/>
       <c r="G45" s="59"/>
-      <c r="H45" s="133"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="57"/>
       <c r="K45" s="59"/>
-      <c r="L45" s="133"/>
+      <c r="L45" s="105"/>
       <c r="M45" s="57"/>
       <c r="O45" s="59"/>
-      <c r="P45" s="133"/>
+      <c r="P45" s="105"/>
       <c r="Q45" s="57"/>
       <c r="S45" s="48"/>
-      <c r="T45" s="133"/>
+      <c r="T45" s="105"/>
       <c r="U45" s="49"/>
       <c r="W45" s="48"/>
-      <c r="X45" s="133"/>
+      <c r="X45" s="105"/>
       <c r="Y45" s="49"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -4710,19 +4714,19 @@
       <c r="D46" s="76"/>
       <c r="E46" s="78"/>
       <c r="G46" s="59"/>
-      <c r="H46" s="133"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="57"/>
       <c r="K46" s="59"/>
-      <c r="L46" s="133"/>
+      <c r="L46" s="105"/>
       <c r="M46" s="57"/>
       <c r="O46" s="59"/>
-      <c r="P46" s="133"/>
+      <c r="P46" s="105"/>
       <c r="Q46" s="57"/>
       <c r="S46" s="48"/>
-      <c r="T46" s="133"/>
+      <c r="T46" s="105"/>
       <c r="U46" s="49"/>
       <c r="W46" s="48"/>
-      <c r="X46" s="133"/>
+      <c r="X46" s="105"/>
       <c r="Y46" s="49"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -4734,19 +4738,19 @@
       <c r="D47" s="76"/>
       <c r="E47" s="78"/>
       <c r="G47" s="59"/>
-      <c r="H47" s="133"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="57"/>
       <c r="K47" s="59"/>
-      <c r="L47" s="133"/>
+      <c r="L47" s="105"/>
       <c r="M47" s="57"/>
       <c r="O47" s="59"/>
-      <c r="P47" s="133"/>
+      <c r="P47" s="105"/>
       <c r="Q47" s="57"/>
       <c r="S47" s="48"/>
-      <c r="T47" s="133"/>
+      <c r="T47" s="105"/>
       <c r="U47" s="49"/>
       <c r="W47" s="48"/>
-      <c r="X47" s="133"/>
+      <c r="X47" s="105"/>
       <c r="Y47" s="49"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -4758,19 +4762,19 @@
       <c r="D48" s="76"/>
       <c r="E48" s="78"/>
       <c r="G48" s="59"/>
-      <c r="H48" s="133"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="57"/>
       <c r="K48" s="59"/>
-      <c r="L48" s="133"/>
+      <c r="L48" s="105"/>
       <c r="M48" s="57"/>
       <c r="O48" s="59"/>
-      <c r="P48" s="133"/>
+      <c r="P48" s="105"/>
       <c r="Q48" s="57"/>
       <c r="S48" s="48"/>
-      <c r="T48" s="133"/>
+      <c r="T48" s="105"/>
       <c r="U48" s="49"/>
       <c r="W48" s="48"/>
-      <c r="X48" s="133"/>
+      <c r="X48" s="105"/>
       <c r="Y48" s="49"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -4782,19 +4786,19 @@
       <c r="D49" s="79"/>
       <c r="E49" s="81"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="133"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="57"/>
       <c r="K49" s="59"/>
-      <c r="L49" s="133"/>
+      <c r="L49" s="105"/>
       <c r="M49" s="57"/>
       <c r="O49" s="59"/>
-      <c r="P49" s="133"/>
+      <c r="P49" s="105"/>
       <c r="Q49" s="57"/>
       <c r="S49" s="48"/>
-      <c r="T49" s="133"/>
+      <c r="T49" s="105"/>
       <c r="U49" s="49"/>
       <c r="W49" s="48"/>
-      <c r="X49" s="133"/>
+      <c r="X49" s="105"/>
       <c r="Y49" s="49"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4804,19 +4808,19 @@
       <c r="D50" s="79"/>
       <c r="E50" s="81"/>
       <c r="G50" s="60"/>
-      <c r="H50" s="133"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="57"/>
       <c r="K50" s="60"/>
-      <c r="L50" s="133"/>
+      <c r="L50" s="105"/>
       <c r="M50" s="57"/>
       <c r="O50" s="60"/>
-      <c r="P50" s="133"/>
+      <c r="P50" s="105"/>
       <c r="Q50" s="57"/>
       <c r="S50" s="48"/>
-      <c r="T50" s="133"/>
+      <c r="T50" s="105"/>
       <c r="U50" s="49"/>
       <c r="W50" s="48"/>
-      <c r="X50" s="133"/>
+      <c r="X50" s="105"/>
       <c r="Y50" s="49"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4886,19 +4890,19 @@
       <c r="D52" s="71"/>
       <c r="E52" s="73"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="133"/>
+      <c r="H52" s="105"/>
       <c r="I52" s="57"/>
       <c r="K52" s="59"/>
-      <c r="L52" s="133"/>
+      <c r="L52" s="105"/>
       <c r="M52" s="57"/>
       <c r="O52" s="59"/>
-      <c r="P52" s="133"/>
+      <c r="P52" s="105"/>
       <c r="Q52" s="57"/>
       <c r="S52" s="48"/>
-      <c r="T52" s="133"/>
+      <c r="T52" s="105"/>
       <c r="U52" s="49"/>
       <c r="W52" s="48"/>
-      <c r="X52" s="133"/>
+      <c r="X52" s="105"/>
       <c r="Y52" s="49"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -4910,19 +4914,19 @@
       <c r="D53" s="76"/>
       <c r="E53" s="78"/>
       <c r="G53" s="59"/>
-      <c r="H53" s="133"/>
+      <c r="H53" s="105"/>
       <c r="I53" s="57"/>
       <c r="K53" s="59"/>
-      <c r="L53" s="133"/>
+      <c r="L53" s="105"/>
       <c r="M53" s="57"/>
       <c r="O53" s="59"/>
-      <c r="P53" s="133"/>
+      <c r="P53" s="105"/>
       <c r="Q53" s="57"/>
       <c r="S53" s="48"/>
-      <c r="T53" s="133"/>
+      <c r="T53" s="105"/>
       <c r="U53" s="49"/>
       <c r="W53" s="48"/>
-      <c r="X53" s="133"/>
+      <c r="X53" s="105"/>
       <c r="Y53" s="49"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -4934,19 +4938,19 @@
       <c r="D54" s="76"/>
       <c r="E54" s="78"/>
       <c r="G54" s="59"/>
-      <c r="H54" s="133"/>
+      <c r="H54" s="105"/>
       <c r="I54" s="57"/>
       <c r="K54" s="59"/>
-      <c r="L54" s="133"/>
+      <c r="L54" s="105"/>
       <c r="M54" s="57"/>
       <c r="O54" s="59"/>
-      <c r="P54" s="133"/>
+      <c r="P54" s="105"/>
       <c r="Q54" s="57"/>
       <c r="S54" s="48"/>
-      <c r="T54" s="133"/>
+      <c r="T54" s="105"/>
       <c r="U54" s="49"/>
       <c r="W54" s="48"/>
-      <c r="X54" s="133"/>
+      <c r="X54" s="105"/>
       <c r="Y54" s="49"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -4958,19 +4962,19 @@
       <c r="D55" s="76"/>
       <c r="E55" s="78"/>
       <c r="G55" s="59"/>
-      <c r="H55" s="133"/>
+      <c r="H55" s="105"/>
       <c r="I55" s="57"/>
       <c r="K55" s="59"/>
-      <c r="L55" s="133"/>
+      <c r="L55" s="105"/>
       <c r="M55" s="57"/>
       <c r="O55" s="59"/>
-      <c r="P55" s="133"/>
+      <c r="P55" s="105"/>
       <c r="Q55" s="57"/>
       <c r="S55" s="48"/>
-      <c r="T55" s="133"/>
+      <c r="T55" s="105"/>
       <c r="U55" s="49"/>
       <c r="W55" s="48"/>
-      <c r="X55" s="133"/>
+      <c r="X55" s="105"/>
       <c r="Y55" s="49"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -4982,19 +4986,19 @@
       <c r="D56" s="76"/>
       <c r="E56" s="78"/>
       <c r="G56" s="59"/>
-      <c r="H56" s="133"/>
+      <c r="H56" s="105"/>
       <c r="I56" s="57"/>
       <c r="K56" s="59"/>
-      <c r="L56" s="133"/>
+      <c r="L56" s="105"/>
       <c r="M56" s="57"/>
       <c r="O56" s="59"/>
-      <c r="P56" s="133"/>
+      <c r="P56" s="105"/>
       <c r="Q56" s="57"/>
       <c r="S56" s="48"/>
-      <c r="T56" s="133"/>
+      <c r="T56" s="105"/>
       <c r="U56" s="49"/>
       <c r="W56" s="48"/>
-      <c r="X56" s="133"/>
+      <c r="X56" s="105"/>
       <c r="Y56" s="49"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5006,19 +5010,19 @@
       <c r="D57" s="76"/>
       <c r="E57" s="78"/>
       <c r="G57" s="59"/>
-      <c r="H57" s="133"/>
+      <c r="H57" s="105"/>
       <c r="I57" s="57"/>
       <c r="K57" s="59"/>
-      <c r="L57" s="133"/>
+      <c r="L57" s="105"/>
       <c r="M57" s="57"/>
       <c r="O57" s="59"/>
-      <c r="P57" s="133"/>
+      <c r="P57" s="105"/>
       <c r="Q57" s="57"/>
       <c r="S57" s="48"/>
-      <c r="T57" s="133"/>
+      <c r="T57" s="105"/>
       <c r="U57" s="49"/>
       <c r="W57" s="48"/>
-      <c r="X57" s="133"/>
+      <c r="X57" s="105"/>
       <c r="Y57" s="49"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -5030,19 +5034,19 @@
       <c r="D58" s="76"/>
       <c r="E58" s="78"/>
       <c r="G58" s="59"/>
-      <c r="H58" s="133"/>
+      <c r="H58" s="105"/>
       <c r="I58" s="57"/>
       <c r="K58" s="59"/>
-      <c r="L58" s="133"/>
+      <c r="L58" s="105"/>
       <c r="M58" s="57"/>
       <c r="O58" s="59"/>
-      <c r="P58" s="133"/>
+      <c r="P58" s="105"/>
       <c r="Q58" s="57"/>
       <c r="S58" s="48"/>
-      <c r="T58" s="133"/>
+      <c r="T58" s="105"/>
       <c r="U58" s="49"/>
       <c r="W58" s="48"/>
-      <c r="X58" s="133"/>
+      <c r="X58" s="105"/>
       <c r="Y58" s="49"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -5054,19 +5058,19 @@
       <c r="D59" s="76"/>
       <c r="E59" s="78"/>
       <c r="G59" s="59"/>
-      <c r="H59" s="133"/>
+      <c r="H59" s="105"/>
       <c r="I59" s="57"/>
       <c r="K59" s="59"/>
-      <c r="L59" s="133"/>
+      <c r="L59" s="105"/>
       <c r="M59" s="57"/>
       <c r="O59" s="59"/>
-      <c r="P59" s="133"/>
+      <c r="P59" s="105"/>
       <c r="Q59" s="57"/>
       <c r="S59" s="48"/>
-      <c r="T59" s="133"/>
+      <c r="T59" s="105"/>
       <c r="U59" s="49"/>
       <c r="W59" s="48"/>
-      <c r="X59" s="133"/>
+      <c r="X59" s="105"/>
       <c r="Y59" s="49"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -5078,19 +5082,19 @@
       <c r="D60" s="76"/>
       <c r="E60" s="78"/>
       <c r="G60" s="59"/>
-      <c r="H60" s="133"/>
+      <c r="H60" s="105"/>
       <c r="I60" s="57"/>
       <c r="K60" s="59"/>
-      <c r="L60" s="133"/>
+      <c r="L60" s="105"/>
       <c r="M60" s="57"/>
       <c r="O60" s="59"/>
-      <c r="P60" s="133"/>
+      <c r="P60" s="105"/>
       <c r="Q60" s="57"/>
       <c r="S60" s="48"/>
-      <c r="T60" s="133"/>
+      <c r="T60" s="105"/>
       <c r="U60" s="49"/>
       <c r="W60" s="48"/>
-      <c r="X60" s="133"/>
+      <c r="X60" s="105"/>
       <c r="Y60" s="49"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -5102,19 +5106,19 @@
       <c r="D61" s="79"/>
       <c r="E61" s="81"/>
       <c r="G61" s="59"/>
-      <c r="H61" s="133"/>
+      <c r="H61" s="105"/>
       <c r="I61" s="57"/>
       <c r="K61" s="59"/>
-      <c r="L61" s="133"/>
+      <c r="L61" s="105"/>
       <c r="M61" s="57"/>
       <c r="O61" s="59"/>
-      <c r="P61" s="133"/>
+      <c r="P61" s="105"/>
       <c r="Q61" s="57"/>
       <c r="S61" s="48"/>
-      <c r="T61" s="133"/>
+      <c r="T61" s="105"/>
       <c r="U61" s="49"/>
       <c r="W61" s="48"/>
-      <c r="X61" s="133"/>
+      <c r="X61" s="105"/>
       <c r="Y61" s="49"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5124,19 +5128,19 @@
       <c r="D62" s="82"/>
       <c r="E62" s="84"/>
       <c r="G62" s="41"/>
-      <c r="H62" s="134"/>
+      <c r="H62" s="106"/>
       <c r="I62" s="42"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="134"/>
+      <c r="L62" s="106"/>
       <c r="M62" s="42"/>
       <c r="O62" s="41"/>
-      <c r="P62" s="134"/>
+      <c r="P62" s="106"/>
       <c r="Q62" s="42"/>
       <c r="S62" s="50"/>
-      <c r="T62" s="135"/>
+      <c r="T62" s="107"/>
       <c r="U62" s="51"/>
       <c r="W62" s="50"/>
-      <c r="X62" s="135"/>
+      <c r="X62" s="107"/>
       <c r="Y62" s="51"/>
     </row>
     <row r="63" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5210,231 +5214,231 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="140" t="s">
+      <c r="A65" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="112"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="114"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="130"/>
       <c r="E65" s="22"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="133"/>
+      <c r="H65" s="105"/>
       <c r="I65" s="38"/>
       <c r="K65" s="37"/>
-      <c r="L65" s="133"/>
+      <c r="L65" s="105"/>
       <c r="M65" s="38"/>
       <c r="O65" s="37"/>
-      <c r="P65" s="133"/>
+      <c r="P65" s="105"/>
       <c r="Q65" s="38"/>
       <c r="S65" s="48"/>
-      <c r="T65" s="133"/>
+      <c r="T65" s="105"/>
       <c r="U65" s="49"/>
       <c r="W65" s="48"/>
-      <c r="X65" s="133"/>
+      <c r="X65" s="105"/>
       <c r="Y65" s="49"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="138"/>
-      <c r="D66" s="139"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="111"/>
       <c r="E66" s="22"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="133"/>
+      <c r="H66" s="105"/>
       <c r="I66" s="38"/>
       <c r="K66" s="37"/>
-      <c r="L66" s="133"/>
+      <c r="L66" s="105"/>
       <c r="M66" s="38"/>
       <c r="O66" s="37"/>
-      <c r="P66" s="133"/>
+      <c r="P66" s="105"/>
       <c r="Q66" s="38"/>
       <c r="S66" s="48"/>
-      <c r="T66" s="133"/>
+      <c r="T66" s="105"/>
       <c r="U66" s="49"/>
       <c r="W66" s="48"/>
-      <c r="X66" s="133"/>
+      <c r="X66" s="105"/>
       <c r="Y66" s="49"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="133"/>
       <c r="E67" s="23"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="133"/>
+      <c r="H67" s="105"/>
       <c r="I67" s="38"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="133"/>
+      <c r="L67" s="105"/>
       <c r="M67" s="38"/>
       <c r="O67" s="37"/>
-      <c r="P67" s="133"/>
+      <c r="P67" s="105"/>
       <c r="Q67" s="38"/>
       <c r="S67" s="48"/>
-      <c r="T67" s="133"/>
+      <c r="T67" s="105"/>
       <c r="U67" s="49"/>
       <c r="W67" s="48"/>
-      <c r="X67" s="133"/>
+      <c r="X67" s="105"/>
       <c r="Y67" s="49"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="115" t="s">
+      <c r="B68" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="117"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="133"/>
       <c r="E68" s="23"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="133"/>
+      <c r="H68" s="105"/>
       <c r="I68" s="38"/>
       <c r="K68" s="37"/>
-      <c r="L68" s="133"/>
+      <c r="L68" s="105"/>
       <c r="M68" s="38"/>
       <c r="O68" s="37"/>
-      <c r="P68" s="133"/>
+      <c r="P68" s="105"/>
       <c r="Q68" s="38"/>
       <c r="S68" s="48"/>
-      <c r="T68" s="133"/>
+      <c r="T68" s="105"/>
       <c r="U68" s="49"/>
       <c r="W68" s="48"/>
-      <c r="X68" s="133"/>
+      <c r="X68" s="105"/>
       <c r="Y68" s="49"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="133"/>
       <c r="E69" s="23"/>
       <c r="G69" s="39"/>
-      <c r="H69" s="133"/>
+      <c r="H69" s="105"/>
       <c r="I69" s="57"/>
       <c r="K69" s="39"/>
-      <c r="L69" s="133"/>
+      <c r="L69" s="105"/>
       <c r="M69" s="57"/>
       <c r="O69" s="39"/>
-      <c r="P69" s="133"/>
+      <c r="P69" s="105"/>
       <c r="Q69" s="57"/>
       <c r="S69" s="48"/>
-      <c r="T69" s="133"/>
+      <c r="T69" s="105"/>
       <c r="U69" s="49"/>
       <c r="W69" s="48"/>
-      <c r="X69" s="133"/>
+      <c r="X69" s="105"/>
       <c r="Y69" s="49"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="115" t="s">
+      <c r="B70" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="116"/>
-      <c r="D70" s="117"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="133"/>
       <c r="E70" s="23" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H70" s="133" t="s">
+      <c r="H70" s="105" t="s">
         <v>25</v>
       </c>
       <c r="I70" s="57" t="s">
         <v>17</v>
       </c>
       <c r="K70" s="39"/>
-      <c r="L70" s="133"/>
+      <c r="L70" s="105"/>
       <c r="M70" s="57"/>
       <c r="O70" s="39"/>
-      <c r="P70" s="133"/>
+      <c r="P70" s="105"/>
       <c r="Q70" s="57"/>
       <c r="S70" s="48"/>
-      <c r="T70" s="133"/>
+      <c r="T70" s="105"/>
       <c r="U70" s="49"/>
       <c r="W70" s="48"/>
-      <c r="X70" s="133"/>
+      <c r="X70" s="105"/>
       <c r="Y70" s="49"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
-      <c r="B71" s="118"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="120"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
       <c r="E71" s="23"/>
       <c r="G71" s="39"/>
-      <c r="H71" s="133"/>
+      <c r="H71" s="105"/>
       <c r="I71" s="40"/>
       <c r="K71" s="39"/>
-      <c r="L71" s="133"/>
+      <c r="L71" s="105"/>
       <c r="M71" s="40"/>
       <c r="O71" s="39"/>
-      <c r="P71" s="133"/>
+      <c r="P71" s="105"/>
       <c r="Q71" s="40"/>
       <c r="S71" s="48"/>
-      <c r="T71" s="133"/>
+      <c r="T71" s="105"/>
       <c r="U71" s="49"/>
       <c r="W71" s="48"/>
-      <c r="X71" s="133"/>
+      <c r="X71" s="105"/>
       <c r="Y71" s="49"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
-      <c r="B72" s="118"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="120"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="124"/>
       <c r="E72" s="23"/>
       <c r="G72" s="58"/>
-      <c r="H72" s="133"/>
+      <c r="H72" s="105"/>
       <c r="I72" s="57"/>
       <c r="K72" s="58"/>
-      <c r="L72" s="133"/>
+      <c r="L72" s="105"/>
       <c r="M72" s="57"/>
       <c r="O72" s="58"/>
-      <c r="P72" s="133"/>
+      <c r="P72" s="105"/>
       <c r="Q72" s="57"/>
       <c r="S72" s="48"/>
-      <c r="T72" s="133"/>
+      <c r="T72" s="105"/>
       <c r="U72" s="49"/>
       <c r="W72" s="48"/>
-      <c r="X72" s="133"/>
+      <c r="X72" s="105"/>
       <c r="Y72" s="49"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="123"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="127"/>
       <c r="E73" s="24"/>
       <c r="G73" s="41"/>
-      <c r="H73" s="134"/>
+      <c r="H73" s="106"/>
       <c r="I73" s="42"/>
       <c r="K73" s="41"/>
-      <c r="L73" s="134"/>
+      <c r="L73" s="106"/>
       <c r="M73" s="42"/>
       <c r="O73" s="41"/>
-      <c r="P73" s="134"/>
+      <c r="P73" s="106"/>
       <c r="Q73" s="42"/>
       <c r="S73" s="50"/>
-      <c r="T73" s="135"/>
+      <c r="T73" s="107"/>
       <c r="U73" s="51"/>
       <c r="W73" s="50"/>
-      <c r="X73" s="135"/>
+      <c r="X73" s="107"/>
       <c r="Y73" s="51"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5454,11 +5458,11 @@
     <protectedRange sqref="A65" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
@@ -5467,11 +5471,11 @@
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="W37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B10:F12 A7:E34 A36:AG36 A13:F35 J35:N35 J10:J34 R34:V35 R10:R33 V10:V33 Z10:AG35 N10:N34 O69:Q73 K69:M73 G69:I73 W65:Y72 S65:U72">
@@ -5652,6 +5656,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5860,15 +5873,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5876,6 +5880,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5890,14 +5902,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC104515-2FD3-4C3B-BE10-99E50F313099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF46635-C265-40D7-B699-737794F05A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2050,31 +2050,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,25 +2107,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y65" activeCellId="19" sqref="I7:I35 M7:M35 Q7:Q35 U7:U35 Y7:Y35 I39:I50 M39:M50 Q39:Q50 U39:U50 Y39:Y50 Y52:Y62 U52:U62 Q52:Q62 M52:M62 I52:I61 I65:I73 M65:M73 Q65:Q73 U65:U73 Y65:Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,32 +3336,32 @@
         <v>57</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="O4" s="140" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="O4" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="S4" s="134" t="s">
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="S4" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="136"/>
-      <c r="W4" s="137" t="s">
+      <c r="T4" s="114"/>
+      <c r="U4" s="115"/>
+      <c r="W4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="139"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4445,35 +4445,35 @@
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
-      <c r="G37" s="113" t="s">
+      <c r="G37" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="134"/>
       <c r="J37" s="62"/>
-      <c r="K37" s="113" t="s">
+      <c r="K37" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="134"/>
       <c r="N37" s="62"/>
-      <c r="O37" s="116" t="s">
+      <c r="O37" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="118"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="137"/>
       <c r="R37" s="63"/>
-      <c r="S37" s="119" t="s">
+      <c r="S37" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="T37" s="120"/>
-      <c r="U37" s="121"/>
+      <c r="T37" s="139"/>
+      <c r="U37" s="140"/>
       <c r="V37" s="63"/>
-      <c r="W37" s="120" t="s">
+      <c r="W37" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="121"/>
+      <c r="X37" s="139"/>
+      <c r="Y37" s="140"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
@@ -5217,9 +5217,9 @@
       <c r="A65" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="128"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="130"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="128"/>
       <c r="E65" s="22"/>
       <c r="G65" s="37"/>
       <c r="H65" s="105"/>
@@ -5267,11 +5267,11 @@
       <c r="A67" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="133"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="131"/>
       <c r="E67" s="23"/>
       <c r="G67" s="37"/>
       <c r="H67" s="105"/>
@@ -5293,11 +5293,11 @@
       <c r="A68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="133"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="131"/>
       <c r="E68" s="23"/>
       <c r="G68" s="37"/>
       <c r="H68" s="105"/>
@@ -5319,11 +5319,11 @@
       <c r="A69" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="131" t="s">
+      <c r="B69" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="132"/>
-      <c r="D69" s="133"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="131"/>
       <c r="E69" s="23"/>
       <c r="G69" s="39"/>
       <c r="H69" s="105"/>
@@ -5345,11 +5345,11 @@
       <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="131" t="s">
+      <c r="B70" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="133"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="131"/>
       <c r="E70" s="23" t="s">
         <v>24</v>
       </c>
@@ -5377,9 +5377,9 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="124"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="121"/>
+      <c r="D71" s="122"/>
       <c r="E71" s="23"/>
       <c r="G71" s="39"/>
       <c r="H71" s="105"/>
@@ -5399,9 +5399,9 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="124"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="122"/>
       <c r="E72" s="23"/>
       <c r="G72" s="58"/>
       <c r="H72" s="105"/>
@@ -5421,9 +5421,9 @@
     </row>
     <row r="73" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="125"/>
-      <c r="C73" s="126"/>
-      <c r="D73" s="127"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="125"/>
       <c r="E73" s="24"/>
       <c r="G73" s="41"/>
       <c r="H73" s="106"/>
@@ -5458,11 +5458,11 @@
     <protectedRange sqref="A65" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="W37:Y37"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
@@ -5471,11 +5471,11 @@
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B10:F12 A7:E34 A36:AG36 A13:F35 J35:N35 J10:J34 R34:V35 R10:R33 V10:V33 Z10:AG35 N10:N34 O69:Q73 K69:M73 G69:I73 W65:Y72 S65:U72">
@@ -5642,11 +5642,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D35 C52:D62 C39:D50" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52" xr:uid="{AE53E91A-327D-4299-9B86-BD1A9B68A3CF}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I62" xr:uid="{D1172A7D-931B-4A53-B624-550F797C7DA4}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I35 M7:M35 U7:U35 Y7:Y35 Y39:Y50 U39:U50 Q39:Q50 M39:M50 I39:I50 Q7:Q35 I52:I62 M52:M62 U52:U62 Y53:Y62 Q52:Q62 U65:U73 Q65:Q73 Y65:Y73 I65:I73 M65:M73" xr:uid="{D1172A7D-931B-4A53-B624-550F797C7DA4}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I35 M7:M35 Q7:Q35 U7:U35 Y7:Y35 I39:I50 M39:M50 Q39:Q50 U39:U50 Y39:Y50 Y52:Y62 U52:U62 Q52:Q62 M52:M62 I52:I61 I65:I73 M65:M73 Q65:Q73 U65:U73 Y65:Y73" xr:uid="{985E2CBD-7341-4F22-8697-BFB80715BB0C}">
+      <formula1>"text;boolean;number;picklist;multipicklist;lookup;date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5656,15 +5656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5873,6 +5864,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5880,14 +5880,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5902,6 +5894,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
